--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>441.4637162075326</v>
+        <v>441.3712742930563</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.611147148974</v>
+        <v>13.61104470828863</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.9691385056655</v>
+        <v>543.9708564511977</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>968.0186992038658</v>
+        <v>968.0220998906727</v>
       </c>
       <c r="E5" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.2445105337727</v>
+        <v>467.245047162598</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>880.1365200508632</v>
+        <v>880.1385037522801</v>
       </c>
       <c r="E6" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.5163474772825</v>
+        <v>291.5005263074589</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.7287459587042</v>
+        <v>684.7127994225089</v>
       </c>
       <c r="E7" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.8131745576004</v>
+        <v>223.8052884329267</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.5247377233732</v>
+        <v>611.517526886239</v>
       </c>
       <c r="E8" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G8" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.8939575083614</v>
+        <v>222.8860722079351</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.5379695209811</v>
+        <v>610.5307607132183</v>
       </c>
       <c r="E9" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7651586935329</v>
+        <v>163.7573465868793</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.4242727932816</v>
+        <v>547.417207489534</v>
       </c>
       <c r="E10" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.95848966395674</v>
+        <v>98.955646534303</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.9542508652961</v>
+        <v>478.952463052977</v>
       </c>
       <c r="E11" t="n">
-        <v>455.0748633565066</v>
+        <v>454.9823190013449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781578993063172</v>
+        <v>0.7781574800269367</v>
       </c>
       <c r="G11" t="n">
-        <v>0.120218585656397</v>
+        <v>0.1202179042293976</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195005098440619</v>
+        <v>0.03195041310007721</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310788190002625</v>
+        <v>0.06310860765415607</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565582152853444</v>
+        <v>0.006565594989432268</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.90212947094459</v>
+        <v>12.90203236649253</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7090176780294265</v>
+        <v>0.7090123417961109</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762691759942975</v>
+        <v>4.762711690203949</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944157</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6554552078679863</v>
+        <v>0.655370650908177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863915768468909</v>
+        <v>0.6863269349163916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9549289792846548</v>
+        <v>0.9548957174294993</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.26915473635223</v>
+        <v>56.26108177515041</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.92401789738179</v>
+        <v>33.91997383724114</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488719700834297</v>
+        <v>0.848872478506577</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.88854286948377</v>
+        <v>13.88721859567261</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7645413141690496</v>
+        <v>0.7645517935262749</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.804014515929038</v>
+        <v>5.803404571425299</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7072992869578516</v>
+        <v>0.707366491313421</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.652579453557626</v>
+        <v>2.65048477081136</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5137137849441149</v>
+        <v>0.5135456101943944</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1637508481893393</v>
+        <v>0.1636933348261544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1820977975648963</v>
+        <v>0.1820346371250219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992467255458242</v>
+        <v>0.8992427892375746</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42437.24556729491</v>
+        <v>42441.0295150914</v>
       </c>
       <c r="C2" t="n">
-        <v>42865.9046134292</v>
+        <v>42869.72678292061</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92326.16155672581</v>
+        <v>92325.23388504429</v>
       </c>
       <c r="C3" t="n">
-        <v>93258.74904719779</v>
+        <v>93257.81200509524</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40211.35712372391</v>
+        <v>40208.52008030665</v>
       </c>
       <c r="C4" t="n">
-        <v>40617.53244820597</v>
+        <v>40614.66674778449</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.1528048992064</v>
+        <v>515.150339203701</v>
       </c>
       <c r="C5" t="n">
-        <v>520.356368585057</v>
+        <v>520.3538779835364</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33304.51525632446</v>
+        <v>33304.8694036009</v>
       </c>
       <c r="C6" t="n">
-        <v>33640.92450133784</v>
+        <v>33641.2822258595</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38519.61332215733</v>
+        <v>38520.17302904422</v>
       </c>
       <c r="C7" t="n">
-        <v>38908.70032541145</v>
+        <v>38909.26568590325</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.76851358568911</v>
+        <v>62.76781740878324</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.50132491202447</v>
+        <v>61.50156655680642</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.338403707655287</v>
+        <v>5.338858239779193</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.0245957246445</v>
+        <v>518.0345215835337</v>
       </c>
       <c r="C3" t="n">
-        <v>6.384818075576931</v>
+        <v>6.383390112124451</v>
       </c>
       <c r="D3" t="n">
-        <v>3461.685491361213</v>
+        <v>3461.724878313162</v>
       </c>
       <c r="E3" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4972641876252</v>
+        <v>283.4822223636103</v>
       </c>
       <c r="C4" t="n">
-        <v>6.761967586190629</v>
+        <v>6.760452310304388</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.666622120032</v>
+        <v>2775.685589272933</v>
       </c>
       <c r="E4" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5422117668002</v>
+        <v>282.5263362373965</v>
       </c>
       <c r="C5" t="n">
-        <v>6.761967586190629</v>
+        <v>6.760452310304388</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.179336094492</v>
+        <v>1250.095618282261</v>
       </c>
       <c r="E5" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.916060010479</v>
+        <v>159.9162807243787</v>
       </c>
       <c r="C6" t="n">
-        <v>6.761967586190629</v>
+        <v>6.760452310304388</v>
       </c>
       <c r="D6" t="n">
-        <v>678.7216413781499</v>
+        <v>678.7216954752448</v>
       </c>
       <c r="E6" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.2995307165199</v>
+        <v>153.2931294973758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5197970238955173</v>
+        <v>0.5197093859509215</v>
       </c>
       <c r="D7" t="n">
-        <v>646.4320134185409</v>
+        <v>646.4043328863584</v>
       </c>
       <c r="E7" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.3576657596634</v>
+        <v>167.3524902025492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5136256350350044</v>
+        <v>0.5135104243610824</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.199378141618</v>
+        <v>2783.193880842851</v>
       </c>
       <c r="E8" t="n">
-        <v>13.325824660165</v>
+        <v>13.32233631610077</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.2995306032142</v>
+        <v>153.2931293840827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5197970238955173</v>
+        <v>0.5197093859509215</v>
       </c>
       <c r="D9" t="n">
-        <v>2749.836318631591</v>
+        <v>2749.828835298775</v>
       </c>
       <c r="E9" t="n">
-        <v>13.325824660165</v>
+        <v>13.32233631610077</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.9771537032657</v>
+        <v>151.9720844734177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5197970238955173</v>
+        <v>0.5197093859509215</v>
       </c>
       <c r="D10" t="n">
-        <v>640.7271072638597</v>
+        <v>640.7051937733045</v>
       </c>
       <c r="E10" t="n">
-        <v>71.03533184869205</v>
+        <v>71.02573903282902</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.9771537032657</v>
+        <v>151.9720844734177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5197970238955173</v>
+        <v>0.5197093859509215</v>
       </c>
       <c r="D11" t="n">
-        <v>640.7271072638597</v>
+        <v>640.7051937733045</v>
       </c>
       <c r="E11" t="n">
-        <v>79.27333664667854</v>
+        <v>79.25555649510646</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5197970238955173</v>
+        <v>0.5197093859509215</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6001045044491</v>
+        <v>251.6000309144148</v>
       </c>
       <c r="E12" t="n">
-        <v>79.26923433115104</v>
+        <v>79.25505274640362</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.17671249248804</v>
+        <v>49.18329635857015</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>206.4903973181538</v>
+        <v>206.5179161584971</v>
       </c>
       <c r="E13" t="n">
-        <v>71.03911499663246</v>
+        <v>71.02461839898692</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.4292275208478</v>
+        <v>48.4369736144933</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.3661822008912</v>
+        <v>203.3985572839761</v>
       </c>
       <c r="E14" t="n">
-        <v>59.21942729071959</v>
+        <v>59.20533293087149</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.95561141214114</v>
+        <v>79.96443278193181</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04732931809824603</v>
+        <v>0.04734623095398756</v>
       </c>
       <c r="D15" t="n">
-        <v>334.8259930148492</v>
+        <v>334.8630283684365</v>
       </c>
       <c r="E15" t="n">
-        <v>54.76856469351182</v>
+        <v>54.76593019577439</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.40909658496787</v>
+        <v>50.41150196578764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04732939171798928</v>
+        <v>0.04735036078356968</v>
       </c>
       <c r="D16" t="n">
-        <v>211.0825739765293</v>
+        <v>211.0926503428824</v>
       </c>
       <c r="E16" t="n">
-        <v>54.76696974879103</v>
+        <v>54.76830007062766</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>578.6190569708705</v>
+        <v>578.6238866276149</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.88917128614366</v>
+        <v>72.88977968241657</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.88419717668627</v>
+        <v>64.89091500070052</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>271.6701335787855</v>
+        <v>271.6982611079331</v>
       </c>
       <c r="E19" t="n">
-        <v>72.88917128614366</v>
+        <v>72.88977968241657</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.2332426255333</v>
+        <v>102.2327887098062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1097747789840454</v>
+        <v>0.1097670106643921</v>
       </c>
       <c r="D20" t="n">
-        <v>2659.778281187484</v>
+        <v>2659.813631419048</v>
       </c>
       <c r="E20" t="n">
-        <v>20.24609469901376</v>
+        <v>20.23680207824956</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.7833032626657</v>
+        <v>100.7813107152723</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1042860400348431</v>
+        <v>0.1042786601311725</v>
       </c>
       <c r="D21" t="n">
-        <v>422.470819719725</v>
+        <v>422.4624124561989</v>
       </c>
       <c r="E21" t="n">
-        <v>20.24609469901376</v>
+        <v>20.23680207824956</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.7533128979867</v>
+        <v>77.76160125744605</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>325.5531211038704</v>
+        <v>325.5878244649266</v>
       </c>
       <c r="E22" t="n">
-        <v>578.6190569708705</v>
+        <v>578.6238866276149</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>578.6190569708705</v>
+        <v>578.6238866276149</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.6693694051292</v>
+        <v>45.6702156555583</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>578.6190569708705</v>
+        <v>578.6238866276149</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.22725428902066</v>
+        <v>81.2361486877702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04982033484025898</v>
+        <v>0.04983813784630269</v>
       </c>
       <c r="D25" t="n">
-        <v>2557.709829040185</v>
+        <v>2557.784294166856</v>
       </c>
       <c r="E25" t="n">
-        <v>34.52261087541893</v>
+        <v>34.53139972869328</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.1269222749759</v>
+        <v>515.1369769414974</v>
       </c>
       <c r="C26" t="n">
-        <v>5.755125721659964</v>
+        <v>5.753689345087545</v>
       </c>
       <c r="D26" t="n">
-        <v>3461.685491361213</v>
+        <v>3461.724878313162</v>
       </c>
       <c r="E26" t="n">
-        <v>45.89509624417787</v>
+        <v>45.88303615312883</v>
       </c>
       <c r="F26" t="n">
-        <v>6.950408677262026</v>
+        <v>6.950569051828426</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.2733210610778</v>
+        <v>199.2837077481557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3834211436737713</v>
+        <v>0.3833317650700134</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.240236399132</v>
+        <v>2860.266452748142</v>
       </c>
       <c r="E27" t="n">
-        <v>45.89509624417787</v>
+        <v>45.88303615312883</v>
       </c>
       <c r="F27" t="n">
-        <v>7.189976807485575</v>
+        <v>7.190137697378002</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.7558641375917</v>
+        <v>164.7495842514842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4339578767423198</v>
+        <v>0.4338420432746591</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.199378141618</v>
+        <v>2783.193880842851</v>
       </c>
       <c r="E28" t="n">
-        <v>13.325824660165</v>
+        <v>13.32233631610077</v>
       </c>
       <c r="F28" t="n">
-        <v>6.964899583991495</v>
+        <v>6.965006192033559</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.0075136421194</v>
+        <v>191.0142679360816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3834211436737713</v>
+        <v>0.3833317650700134</v>
       </c>
       <c r="D29" t="n">
-        <v>2842.904589584951</v>
+        <v>2842.923656294952</v>
       </c>
       <c r="E29" t="n">
-        <v>59.22092090434287</v>
+        <v>59.2053724692296</v>
       </c>
       <c r="F29" t="n">
-        <v>7.152956477643714</v>
+        <v>7.153102776354417</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.2332159717868</v>
+        <v>102.2325424709793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1097719946562557</v>
+        <v>0.1097693920715172</v>
       </c>
       <c r="D30" t="n">
-        <v>2659.778198864751</v>
+        <v>2659.812870478621</v>
       </c>
       <c r="E30" t="n">
-        <v>59.22092090434287</v>
+        <v>59.2053724692296</v>
       </c>
       <c r="F30" t="n">
-        <v>7.276128585534559</v>
+        <v>7.276231620334013</v>
       </c>
       <c r="G30" t="n">
-        <v>99.14234050558349</v>
+        <v>99.1439286590537</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.22864013649371</v>
+        <v>81.23523387894488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04982310839813929</v>
+        <v>0.04983630652109737</v>
       </c>
       <c r="D31" t="n">
-        <v>2557.715895789877</v>
+        <v>2557.780551809414</v>
       </c>
       <c r="E31" t="n">
-        <v>38.97496708624999</v>
+        <v>38.97084200214849</v>
       </c>
       <c r="F31" t="n">
-        <v>7.347711600111536</v>
+        <v>7.347777579056999</v>
       </c>
       <c r="G31" t="n">
-        <v>96.21014881358072</v>
+        <v>96.21244944075022</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.63847238660566</v>
+        <v>42.5783169148628</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008489000676409186</v>
+        <v>0.008462327554132915</v>
       </c>
       <c r="D32" t="n">
-        <v>2557.715895789877</v>
+        <v>2557.780551809414</v>
       </c>
       <c r="E32" t="n">
-        <v>4.452457541928567</v>
+        <v>4.437032860243825</v>
       </c>
       <c r="F32" t="n">
-        <v>8.141481309138339</v>
+        <v>8.143121703114049</v>
       </c>
       <c r="G32" t="n">
-        <v>99.14549741733288</v>
+        <v>99.15271215920711</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.214016234827</v>
+        <v>28.3076797401647</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002930840442582789</v>
+        <v>0.002929800396017815</v>
       </c>
       <c r="D33" t="n">
-        <v>2552.743043274146</v>
+        <v>2552.921300931592</v>
       </c>
       <c r="E33" t="n">
-        <v>4.452457541928567</v>
+        <v>4.437032860243825</v>
       </c>
       <c r="F33" t="n">
-        <v>8.613593898684995</v>
+        <v>8.614348885523867</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.69110034856703</v>
+        <v>23.68520596270884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002930840442582789</v>
+        <v>0.002929800396017815</v>
       </c>
       <c r="D34" t="n">
-        <v>99.35533140305131</v>
+        <v>99.33067900400148</v>
       </c>
       <c r="E34" t="n">
-        <v>4.452457541928567</v>
+        <v>4.437032860243825</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.71313143802195</v>
+        <v>25.70723291290915</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.4515443932181</v>
+        <v>108.4268925038423</v>
       </c>
       <c r="E35" t="n">
-        <v>4.452457541928567</v>
+        <v>4.437032860243825</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0204835448633</v>
+        <v>503.0322797549564</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.906082862755</v>
+        <v>3474.932117590796</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416366472103</v>
+        <v>10.16420619832274</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81968770591287</v>
+        <v>11.81928546811542</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0204835448633</v>
+        <v>518.0322797549564</v>
       </c>
       <c r="C42" t="n">
-        <v>6.38483483362891</v>
+        <v>6.383613907485236</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.672854258155</v>
+        <v>3461.714123293183</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81968770591287</v>
+        <v>11.81928546811542</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97390593468597</v>
+        <v>11.97395604144957</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762691759942975</v>
+        <v>4.762711690203949</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944157</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.863418516849919</v>
+        <v>1.864821788209043</v>
       </c>
       <c r="C2" t="n">
-        <v>2.110499343601871</v>
+        <v>2.112282620642806</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8829277879185344</v>
+        <v>0.8828467223015564</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2111940591751668</v>
+        <v>0.210963236313556</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>123.2843031408011</v>
+        <v>123.2398801562167</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.12566770294483</v>
+        <v>31.12193718407504</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.211469133991605</v>
+        <v>6.211374878212074</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.44831768020622</v>
+        <v>42.43572698798456</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.60338786208881</v>
+        <v>27.59673868480375</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489188432445478</v>
+        <v>0.8489188287857714</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.84491350033876</v>
+        <v>10.84114227738922</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7984124936115533</v>
+        <v>0.7984556064167495</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.977874903090097</v>
+        <v>3.97628536997052</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8009296689629012</v>
+        <v>0.8009624101154235</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02214141468856345</v>
+        <v>0.02156065582106679</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03425298099279531</v>
+        <v>0.03355748135041888</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04050050213105679</v>
+        <v>0.04036019820258737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04538851720143927</v>
+        <v>0.04523159606582489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923072316134734</v>
+        <v>0.8923009956104967</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39593.04096282947</v>
+        <v>39585.62754949127</v>
       </c>
       <c r="C2" t="n">
-        <v>39992.97066952472</v>
+        <v>39985.4823732235</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88035.91443285049</v>
+        <v>88026.08774694621</v>
       </c>
       <c r="C3" t="n">
-        <v>88925.16609378837</v>
+        <v>88915.24014843052</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32980.17100439342</v>
+        <v>32969.52929010263</v>
       </c>
       <c r="C4" t="n">
-        <v>33313.30404484184</v>
+        <v>33302.55483848751</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>444.5628708194553</v>
+        <v>444.4715500958961</v>
       </c>
       <c r="C5" t="n">
-        <v>449.0534048681367</v>
+        <v>448.9611617130264</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28434.24234513901</v>
+        <v>28428.39529806544</v>
       </c>
       <c r="C6" t="n">
-        <v>28721.45691428183</v>
+        <v>28715.55080612671</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30847.39601416606</v>
+        <v>30838.74571164334</v>
       </c>
       <c r="C7" t="n">
-        <v>31158.98587289501</v>
+        <v>31150.24819357913</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.84377134832945</v>
+        <v>44.82406545970476</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.72906378186373</v>
+        <v>77.74774256033004</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.709290308242538</v>
+        <v>6.711396519203997</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34659.93290619436</v>
+        <v>34660.34256868446</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3630.292930625309</v>
+        <v>3629.067977470098</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22596.24757649123</v>
+        <v>22596.07751183296</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.739655474884</v>
+        <v>7875.772612792845</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.865436562115</v>
+        <v>5689.889246732658</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21120.98493211383</v>
+        <v>21121.07331632237</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38316.88295477614</v>
+        <v>38315.80315331797</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7503399365617341</v>
+        <v>0.750069566866763</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.8626510949982</v>
+        <v>463.856240404623</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.2905989072402</v>
+        <v>869.2833438019702</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.4805614249678</v>
+        <v>304.4755373434853</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.2701807365186</v>
+        <v>692.2647042910154</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.1919761640567</v>
+        <v>233.1919418074944</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1714350155634</v>
+        <v>615.1713981399895</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.2716406546515</v>
+        <v>232.2716106971134</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1837131888626</v>
+        <v>614.1836810408594</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.4221812836059</v>
+        <v>172.4215110875672</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.3277148646449</v>
+        <v>550.3270036967635</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.442368380213</v>
+        <v>102.4406693891215</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.4726130918576</v>
+        <v>476.4708287769342</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.6412629188375</v>
+        <v>506.6332595175085</v>
       </c>
       <c r="C3" t="n">
-        <v>7.753231923711262</v>
+        <v>7.752484155881493</v>
       </c>
       <c r="D3" t="n">
-        <v>3418.780616781366</v>
+        <v>3418.769148545093</v>
       </c>
       <c r="E3" t="n">
-        <v>64.10855357795845</v>
+        <v>64.10517364468359</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.1389476760868</v>
+        <v>296.1339519460771</v>
       </c>
       <c r="C4" t="n">
-        <v>8.130423162416026</v>
+        <v>8.129843623373786</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.729220123419</v>
+        <v>2756.737969487255</v>
       </c>
       <c r="E4" t="n">
-        <v>64.10855357795845</v>
+        <v>64.10517364468359</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8953231131084</v>
+        <v>294.8924553708521</v>
       </c>
       <c r="C5" t="n">
-        <v>8.130423162416026</v>
+        <v>8.129843623373786</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.547085220196</v>
+        <v>1316.531601032709</v>
       </c>
       <c r="E5" t="n">
-        <v>64.10855357795845</v>
+        <v>64.10517364468359</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.1826086372781</v>
+        <v>162.1817000022011</v>
       </c>
       <c r="C6" t="n">
-        <v>8.130423162416026</v>
+        <v>8.129843623373786</v>
       </c>
       <c r="D6" t="n">
-        <v>689.3079993413925</v>
+        <v>689.303737917996</v>
       </c>
       <c r="E6" t="n">
-        <v>64.10855357795845</v>
+        <v>64.10517364468359</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.830769812436</v>
+        <v>160.8299689541777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6314081806890708</v>
+        <v>0.6313953747261438</v>
       </c>
       <c r="D7" t="n">
-        <v>679.0838534000724</v>
+        <v>679.0803719453726</v>
       </c>
       <c r="E7" t="n">
-        <v>64.10855357795845</v>
+        <v>64.10517364468359</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.3362327187258</v>
+        <v>174.3380438786363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6247837364047822</v>
+        <v>0.6247585072826283</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.311224077522</v>
+        <v>2791.316190438753</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62860894747662</v>
+        <v>15.62847373927046</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.8307696842676</v>
+        <v>160.8299688260104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6314081806890708</v>
+        <v>0.6313953747261438</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.35180828945</v>
+        <v>2758.350934134538</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62860894747662</v>
+        <v>15.62847373927046</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.4900671578409</v>
+        <v>158.4880584796028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6314081806890708</v>
+        <v>0.6313953747261438</v>
       </c>
       <c r="D10" t="n">
-        <v>668.938614219051</v>
+        <v>668.9299077154137</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73716252543507</v>
+        <v>79.73364738395405</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.4900671578409</v>
+        <v>158.4880584796028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6314081806890708</v>
+        <v>0.6313953747261438</v>
       </c>
       <c r="D11" t="n">
-        <v>668.938614219051</v>
+        <v>668.9299077154137</v>
       </c>
       <c r="E11" t="n">
-        <v>92.31897993882775</v>
+        <v>92.32224554833958</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6314081806890708</v>
+        <v>0.6313953747261438</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6938237074087</v>
+        <v>251.6938129544872</v>
       </c>
       <c r="E12" t="n">
-        <v>92.32615782634184</v>
+        <v>92.32145833671109</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.2300850009666</v>
+        <v>44.2310444719335</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>185.8178345248248</v>
+        <v>185.8218437496836</v>
       </c>
       <c r="E13" t="n">
-        <v>73.33823516842189</v>
+        <v>73.33078895101946</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.2300850009666</v>
+        <v>44.2310444719335</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>185.8178345248248</v>
+        <v>185.8218437496836</v>
       </c>
       <c r="E14" t="n">
-        <v>73.33823516842189</v>
+        <v>73.33078895101946</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.16319740897563</v>
+        <v>72.16349089443327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03423780762928816</v>
+        <v>0.03423823598462598</v>
       </c>
       <c r="D15" t="n">
-        <v>302.1333367288076</v>
+        <v>302.1345672276424</v>
       </c>
       <c r="E15" t="n">
-        <v>55.3372260576494</v>
+        <v>55.33442090614871</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.87888250578914</v>
+        <v>48.87931143984434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03423409106802242</v>
+        <v>0.03423829253591518</v>
       </c>
       <c r="D16" t="n">
-        <v>204.6728565355637</v>
+        <v>204.6746536251948</v>
       </c>
       <c r="E16" t="n">
-        <v>55.33440590688781</v>
+        <v>55.33328434859086</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.34822700493705</v>
+        <v>60.3497126137657</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>252.6780264696714</v>
+        <v>252.684246713837</v>
       </c>
       <c r="E19" t="n">
         <v>73.07303568970033</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.0532919813105</v>
+        <v>104.051404096177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1169974370737159</v>
+        <v>0.1169971488204308</v>
       </c>
       <c r="D20" t="n">
-        <v>2633.11737530001</v>
+        <v>2633.116292021956</v>
       </c>
       <c r="E20" t="n">
-        <v>28.77966469659031</v>
+        <v>28.77935577932588</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.587354909796</v>
+        <v>102.5872847687132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1111475652200301</v>
+        <v>0.1111472913794093</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0847950436038</v>
+        <v>430.0844989338883</v>
       </c>
       <c r="E21" t="n">
-        <v>28.77966469659031</v>
+        <v>28.77935577932588</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.41977296542267</v>
+        <v>70.42005960079341</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>294.8475894062247</v>
+        <v>294.848789548522</v>
       </c>
       <c r="E22" t="n">
         <v>580.0786352034013</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.09796909811493</v>
+        <v>45.09815624161646</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.37126110256509</v>
+        <v>73.37155694749003</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03603979750451385</v>
+        <v>0.03604024840486946</v>
       </c>
       <c r="D25" t="n">
-        <v>2502.852129480309</v>
+        <v>2502.853467848246</v>
       </c>
       <c r="E25" t="n">
-        <v>26.55483806225354</v>
+        <v>26.55518353737807</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.680591307095</v>
+        <v>503.6721335199568</v>
       </c>
       <c r="C26" t="n">
-        <v>7.131857211151878</v>
+        <v>7.131078973747577</v>
       </c>
       <c r="D26" t="n">
-        <v>3418.780616781366</v>
+        <v>3418.769148545093</v>
       </c>
       <c r="E26" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F26" t="n">
-        <v>6.801346472625001</v>
+        <v>6.801379291206867</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5208238856363</v>
+        <v>187.5181208912863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4646702469350167</v>
+        <v>0.4646310362347693</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.939556441726</v>
+        <v>2830.935983770432</v>
       </c>
       <c r="E27" t="n">
-        <v>57.70950718852706</v>
+        <v>57.70340271672826</v>
       </c>
       <c r="F27" t="n">
-        <v>7.040585919673463</v>
+        <v>7.040616022553446</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.5632171422158</v>
+        <v>171.5641553975312</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5341822212395857</v>
+        <v>0.5341418078029042</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.311224077522</v>
+        <v>2791.316190438753</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62860894747662</v>
+        <v>15.62847373927046</v>
       </c>
       <c r="F28" t="n">
-        <v>6.890783050762169</v>
+        <v>6.890827802467093</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6143715140267</v>
+        <v>183.612182906634</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4646702469350167</v>
+        <v>0.4646310362347693</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.494620269488</v>
+        <v>2822.492221936368</v>
       </c>
       <c r="E29" t="n">
-        <v>73.33811613600368</v>
+        <v>73.33187645599872</v>
       </c>
       <c r="F29" t="n">
-        <v>7.022175858245601</v>
+        <v>7.022208423101484</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.0534987007717</v>
+        <v>104.0519577392563</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1169949765405155</v>
+        <v>0.1169887000160557</v>
       </c>
       <c r="D30" t="n">
-        <v>2633.117750488325</v>
+        <v>2633.117297049434</v>
       </c>
       <c r="E30" t="n">
-        <v>73.33811613600368</v>
+        <v>73.33187645599872</v>
       </c>
       <c r="F30" t="n">
-        <v>7.176795612436933</v>
+        <v>7.176818220325977</v>
       </c>
       <c r="G30" t="n">
-        <v>97.82681331863483</v>
+        <v>97.82690380998197</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.37239726450667</v>
+        <v>73.37495226807886</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03604152916685656</v>
+        <v>0.03604542358944566</v>
       </c>
       <c r="D31" t="n">
-        <v>2502.853590117903</v>
+        <v>2502.857795248362</v>
       </c>
       <c r="E31" t="n">
-        <v>44.55572814060783</v>
+        <v>44.55263908722809</v>
       </c>
       <c r="F31" t="n">
-        <v>7.332361436715528</v>
+        <v>7.332326841967757</v>
       </c>
       <c r="G31" t="n">
-        <v>94.45118402516405</v>
+        <v>94.45116305361054</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.31805980060381</v>
+        <v>71.30978369123153</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0330229061946157</v>
+        <v>0.03301119164313035</v>
       </c>
       <c r="D32" t="n">
-        <v>2502.853590117903</v>
+        <v>2502.857795248362</v>
       </c>
       <c r="E32" t="n">
-        <v>18.00382926153408</v>
+        <v>17.9975046024286</v>
       </c>
       <c r="F32" t="n">
-        <v>7.370232718664735</v>
+        <v>7.370398708020488</v>
       </c>
       <c r="G32" t="n">
-        <v>94.61343961801012</v>
+        <v>94.61427354806172</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.33464125079621</v>
+        <v>28.33263676392431</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003857455003449015</v>
+        <v>0.003857005574836616</v>
       </c>
       <c r="D33" t="n">
-        <v>2355.519408315537</v>
+        <v>2355.588224862827</v>
       </c>
       <c r="E33" t="n">
-        <v>18.00382926153408</v>
+        <v>17.9975046024286</v>
       </c>
       <c r="F33" t="n">
-        <v>7.832836376162779</v>
+        <v>7.833113966056142</v>
       </c>
       <c r="G33" t="n">
-        <v>91.90477990201643</v>
+        <v>91.90777211193503</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.33464125079621</v>
+        <v>28.33263676392431</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003857455003449015</v>
+        <v>0.003857005574836616</v>
       </c>
       <c r="D34" t="n">
-        <v>118.7719704489058</v>
+        <v>118.7635903363254</v>
       </c>
       <c r="E34" t="n">
-        <v>18.00382926153408</v>
+        <v>17.9975046024286</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.35953527046945</v>
+        <v>30.35752972140887</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>127.8673048808536</v>
+        <v>127.8589254087257</v>
       </c>
       <c r="E35" t="n">
-        <v>18.00382926153408</v>
+        <v>17.9975046024286</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0204835448633</v>
+        <v>503.0322797549564</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.906082862755</v>
+        <v>3474.932117590796</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416366472103</v>
+        <v>10.16420619832274</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0204835448633</v>
+        <v>518.0322797549564</v>
       </c>
       <c r="C42" t="n">
-        <v>6.38483483362891</v>
+        <v>6.383613907485236</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.672854258155</v>
+        <v>3461.714123293183</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81968770591287</v>
+        <v>11.81928546811542</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>441.3712742930563</v>
+        <v>441.5033365247478</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.61104470828863</v>
+        <v>13.61116814060308</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.9708564511977</v>
+        <v>543.9683880903184</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>968.0220998906727</v>
+        <v>968.0172137521573</v>
       </c>
       <c r="E5" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.245047162598</v>
+        <v>467.2454511756521</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>880.1385037522801</v>
+        <v>880.1369875834406</v>
       </c>
       <c r="E6" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.5005263074589</v>
+        <v>291.5249371214686</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.7127994225089</v>
+        <v>684.7375402271499</v>
       </c>
       <c r="E7" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.8052884329267</v>
+        <v>223.817885789291</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.517526886239</v>
+        <v>611.5292471831733</v>
       </c>
       <c r="E8" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.8860722079351</v>
+        <v>222.8986706586808</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.5307607132183</v>
+        <v>610.5424802901864</v>
       </c>
       <c r="E9" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7573465868793</v>
+        <v>163.7703002656608</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.417207489534</v>
+        <v>547.4291949615157</v>
       </c>
       <c r="E10" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.955646534303</v>
+        <v>98.95923287328931</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.952463052977</v>
+        <v>478.9545072671607</v>
       </c>
       <c r="E11" t="n">
-        <v>454.9823190013449</v>
+        <v>455.1145046653509</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781574800269367</v>
+        <v>0.7781580824514972</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202179042293976</v>
+        <v>0.1202188833101252</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195041310007721</v>
+        <v>0.03194989280887223</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310860765415607</v>
+        <v>0.06310756488379031</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565594989432268</v>
+        <v>0.006565576545714974</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.90203236649253</v>
+        <v>12.90214936909962</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7090123417961109</v>
+        <v>0.7090187715034696</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762711690203949</v>
+        <v>4.762715152534422</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944181</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.655370650908177</v>
+        <v>0.6554640599799644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863269349163916</v>
+        <v>0.6863922991971236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9548957174294993</v>
+        <v>0.9549408709081728</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.26108177515041</v>
+        <v>56.27422403015304</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.91997383724114</v>
+        <v>33.92627600470344</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848872478506577</v>
+        <v>0.8488718813567515</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.88721859567261</v>
+        <v>13.88947438523901</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7645517935262749</v>
+        <v>0.7645263860728468</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.803404571425299</v>
+        <v>5.804430233503469</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.707366491313421</v>
+        <v>0.7072147734650002</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.65048477081136</v>
+        <v>2.654043406707127</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5135456101943944</v>
+        <v>0.5138326716738405</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1636933348261544</v>
+        <v>0.1637915917325427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1820346371250219</v>
+        <v>0.1821425404148329</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992427892375746</v>
+        <v>0.8992495183140876</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42441.0295150914</v>
+        <v>42439.51890693152</v>
       </c>
       <c r="C2" t="n">
-        <v>42869.72678292061</v>
+        <v>42868.20091609245</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92325.23388504429</v>
+        <v>92321.48928911729</v>
       </c>
       <c r="C3" t="n">
-        <v>93257.81200509524</v>
+        <v>93254.02958496696</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40208.52008030665</v>
+        <v>40210.71244115962</v>
       </c>
       <c r="C4" t="n">
-        <v>40614.66674778449</v>
+        <v>40616.88125369659</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.150339203701</v>
+        <v>515.1539412252387</v>
       </c>
       <c r="C5" t="n">
-        <v>520.3538779835364</v>
+        <v>520.35751638913</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33304.8694036009</v>
+        <v>33305.98210335537</v>
       </c>
       <c r="C6" t="n">
-        <v>33641.2822258595</v>
+        <v>33642.40616500542</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38520.17302904422</v>
+        <v>38523.07488362496</v>
       </c>
       <c r="C7" t="n">
-        <v>38909.26568590325</v>
+        <v>38912.19685214643</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.76781740878324</v>
+        <v>62.77944589205111</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.50156655680642</v>
+        <v>61.49095395905675</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.338858239779193</v>
+        <v>5.337842354261004</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.0345215835337</v>
+        <v>518.021418419232</v>
       </c>
       <c r="C3" t="n">
-        <v>6.383390112124451</v>
+        <v>6.385624141632899</v>
       </c>
       <c r="D3" t="n">
-        <v>3461.724878313162</v>
+        <v>3461.668853056422</v>
       </c>
       <c r="E3" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4822223636103</v>
+        <v>283.505564307004</v>
       </c>
       <c r="C4" t="n">
-        <v>6.760452310304388</v>
+        <v>6.762803830685185</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.685589272933</v>
+        <v>2775.656152597989</v>
       </c>
       <c r="E4" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5263362373965</v>
+        <v>282.5498522857237</v>
       </c>
       <c r="C5" t="n">
-        <v>6.760452310304388</v>
+        <v>6.762803830685185</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.095618282261</v>
+        <v>1250.219561360954</v>
       </c>
       <c r="E5" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.9162807243787</v>
+        <v>159.9154956048409</v>
       </c>
       <c r="C6" t="n">
-        <v>6.760452310304388</v>
+        <v>6.762803830685185</v>
       </c>
       <c r="D6" t="n">
-        <v>678.7216954752448</v>
+        <v>678.719702304979</v>
       </c>
       <c r="E6" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.2931294973758</v>
+        <v>153.3041713586046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5197093859509215</v>
+        <v>0.5198605654838364</v>
       </c>
       <c r="D7" t="n">
-        <v>646.4043328863584</v>
+        <v>646.452080832763</v>
       </c>
       <c r="E7" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.3524902025492</v>
+        <v>167.3627328561815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5135104243610824</v>
+        <v>0.51367350184231</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.193880842851</v>
+        <v>2783.206258081081</v>
       </c>
       <c r="E8" t="n">
-        <v>13.32233631610077</v>
+        <v>13.3259808151455</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.2931293840827</v>
+        <v>153.3041712452899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5197093859509215</v>
+        <v>0.5198605654838364</v>
       </c>
       <c r="D9" t="n">
-        <v>2749.828835298775</v>
+        <v>2749.841743510157</v>
       </c>
       <c r="E9" t="n">
-        <v>13.32233631610077</v>
+        <v>13.3259808151455</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.9720844734177</v>
+        <v>151.979890368033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5197093859509215</v>
+        <v>0.5198605654838364</v>
       </c>
       <c r="D10" t="n">
-        <v>640.7051937733045</v>
+        <v>640.7389473727253</v>
       </c>
       <c r="E10" t="n">
-        <v>71.02573903282902</v>
+        <v>71.04000336338818</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.9720844734177</v>
+        <v>151.979890368033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5197093859509215</v>
+        <v>0.5198605654838364</v>
       </c>
       <c r="D11" t="n">
-        <v>640.7051937733045</v>
+        <v>640.7389473727253</v>
       </c>
       <c r="E11" t="n">
-        <v>79.25555649510646</v>
+        <v>79.28324402395398</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5197093859509215</v>
+        <v>0.5198605654838364</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6000309144148</v>
+        <v>251.6001578606945</v>
       </c>
       <c r="E12" t="n">
-        <v>79.25505274640362</v>
+        <v>79.27670909916752</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.18329635857015</v>
+        <v>49.17443425573117</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>206.5179161584971</v>
+        <v>206.4808748864569</v>
       </c>
       <c r="E13" t="n">
-        <v>71.02461839898692</v>
+        <v>71.04748079787004</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.4369736144933</v>
+        <v>48.42657358258845</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.3985572839761</v>
+        <v>203.3550899720127</v>
       </c>
       <c r="E14" t="n">
-        <v>59.20533293087149</v>
+        <v>59.22744393878769</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.96443278193181</v>
+        <v>79.95384630863123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04734623095398756</v>
+        <v>0.04732593454576434</v>
       </c>
       <c r="D15" t="n">
-        <v>334.8630283684365</v>
+        <v>334.8185824687987</v>
       </c>
       <c r="E15" t="n">
-        <v>54.76593019577439</v>
+        <v>54.77064891688808</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.41150196578764</v>
+        <v>50.40869028515976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04735036078356968</v>
+        <v>0.04732225520146669</v>
       </c>
       <c r="D16" t="n">
-        <v>211.0926503428824</v>
+        <v>211.0808688520027</v>
       </c>
       <c r="E16" t="n">
-        <v>54.76830007062766</v>
+        <v>54.76843770042738</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>578.6238866276149</v>
+        <v>578.6143696434531</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.88977968241657</v>
+        <v>72.88858081922612</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.89091500070052</v>
+        <v>64.88249044230658</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>271.6982611079331</v>
+        <v>271.6629874819376</v>
       </c>
       <c r="E19" t="n">
-        <v>72.88977968241657</v>
+        <v>72.88858081922612</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.2327887098062</v>
+        <v>102.2339523073869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1097670106643921</v>
+        <v>0.1097762266242025</v>
       </c>
       <c r="D20" t="n">
-        <v>2659.813631419048</v>
+        <v>2659.76451935698</v>
       </c>
       <c r="E20" t="n">
-        <v>20.23680207824956</v>
+        <v>20.24786913026481</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.7813107152723</v>
+        <v>100.7836745647897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1042786601311725</v>
+        <v>0.1042874152929923</v>
       </c>
       <c r="D21" t="n">
-        <v>422.4624124561989</v>
+        <v>422.4723863755149</v>
       </c>
       <c r="E21" t="n">
-        <v>20.23680207824956</v>
+        <v>20.24786913026481</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.76160125744605</v>
+        <v>77.75166749157309</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>325.5878244649266</v>
+        <v>325.5462317872165</v>
       </c>
       <c r="E22" t="n">
-        <v>578.6238866276149</v>
+        <v>578.6143696434531</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>578.6238866276149</v>
+        <v>578.6143696434531</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.6702156555583</v>
+        <v>45.66915440623996</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>578.6238866276149</v>
+        <v>578.6143696434531</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.2361486877702</v>
+        <v>81.22547457313681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04983813784630269</v>
+        <v>0.04981677320606773</v>
       </c>
       <c r="D25" t="n">
-        <v>2557.784294166856</v>
+        <v>2557.686066712557</v>
       </c>
       <c r="E25" t="n">
-        <v>34.53139972869328</v>
+        <v>34.52074938586941</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.1369769414974</v>
+        <v>515.1234314126456</v>
       </c>
       <c r="C26" t="n">
-        <v>5.753689345087545</v>
+        <v>5.755895798054463</v>
       </c>
       <c r="D26" t="n">
-        <v>3461.724878313162</v>
+        <v>3461.668853056422</v>
       </c>
       <c r="E26" t="n">
-        <v>45.88303615312883</v>
+        <v>45.90150195667709</v>
       </c>
       <c r="F26" t="n">
-        <v>6.950569051828426</v>
+        <v>6.950328389029571</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.2837077481557</v>
+        <v>199.2670428486027</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3833317650700134</v>
+        <v>0.3834594310386156</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.266452748142</v>
+        <v>2860.225182232931</v>
       </c>
       <c r="E27" t="n">
-        <v>45.88303615312883</v>
+        <v>45.90150195667709</v>
       </c>
       <c r="F27" t="n">
-        <v>7.190137697378002</v>
+        <v>7.189899799905559</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.7495842514842</v>
+        <v>164.7602604995723</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4338420432746591</v>
+        <v>0.4339973485154849</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.193880842851</v>
+        <v>2783.206258081081</v>
       </c>
       <c r="E28" t="n">
-        <v>13.32233631610077</v>
+        <v>13.3259808151455</v>
       </c>
       <c r="F28" t="n">
-        <v>6.965006192033559</v>
+        <v>6.964874696439143</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.0142679360816</v>
+        <v>191.0045092622393</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3833317650700134</v>
+        <v>0.3834594310386156</v>
       </c>
       <c r="D29" t="n">
-        <v>2842.923656294952</v>
+        <v>2842.896188029264</v>
       </c>
       <c r="E29" t="n">
-        <v>59.2053724692296</v>
+        <v>59.22748277182259</v>
       </c>
       <c r="F29" t="n">
-        <v>7.153102776354417</v>
+        <v>7.152893310879464</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.2325424709793</v>
+        <v>102.2340765818462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1097693920715172</v>
+        <v>0.1097753203547119</v>
       </c>
       <c r="D30" t="n">
-        <v>2659.812870478621</v>
+        <v>2659.764903119034</v>
       </c>
       <c r="E30" t="n">
-        <v>59.2053724692296</v>
+        <v>59.22748277182259</v>
       </c>
       <c r="F30" t="n">
-        <v>7.276231620334013</v>
+        <v>7.276079530500383</v>
       </c>
       <c r="G30" t="n">
-        <v>99.1439286590537</v>
+        <v>99.14168897765411</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.23523387894488</v>
+        <v>81.22608140860075</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04983630652109737</v>
+        <v>0.04981798760396458</v>
       </c>
       <c r="D31" t="n">
-        <v>2557.780551809414</v>
+        <v>2557.688587059732</v>
       </c>
       <c r="E31" t="n">
-        <v>38.97084200214849</v>
+        <v>38.97758324080392</v>
       </c>
       <c r="F31" t="n">
-        <v>7.347777579056999</v>
+        <v>7.34767973556958</v>
       </c>
       <c r="G31" t="n">
-        <v>96.21244944075022</v>
+        <v>96.20915979681877</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.5783169148628</v>
+        <v>42.66397036004474</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008462327554132915</v>
+        <v>0.008500328403271877</v>
       </c>
       <c r="D32" t="n">
-        <v>2557.780551809414</v>
+        <v>2557.688587059732</v>
       </c>
       <c r="E32" t="n">
-        <v>4.437032860243825</v>
+        <v>4.459006238360303</v>
       </c>
       <c r="F32" t="n">
-        <v>8.143121703114049</v>
+        <v>8.140786539833188</v>
       </c>
       <c r="G32" t="n">
-        <v>99.15271215920711</v>
+        <v>99.14244318460698</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.3076797401647</v>
+        <v>28.17425918769186</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002929800396017815</v>
+        <v>0.002931282042094046</v>
       </c>
       <c r="D33" t="n">
-        <v>2552.921300931592</v>
+        <v>2552.667372899698</v>
       </c>
       <c r="E33" t="n">
-        <v>4.437032860243825</v>
+        <v>4.459006238360303</v>
       </c>
       <c r="F33" t="n">
-        <v>8.614348885523867</v>
+        <v>8.61327335324038</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.68520596270884</v>
+        <v>23.6936025283897</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002929800396017815</v>
+        <v>0.002931282042094046</v>
       </c>
       <c r="D34" t="n">
-        <v>99.33067900400148</v>
+        <v>99.36579639598799</v>
       </c>
       <c r="E34" t="n">
-        <v>4.437032860243825</v>
+        <v>4.459006238360303</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.70723291290915</v>
+        <v>25.71563537461708</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.4268925038423</v>
+        <v>108.4620091694157</v>
       </c>
       <c r="E35" t="n">
-        <v>4.437032860243825</v>
+        <v>4.459006238360303</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0322797549564</v>
+        <v>503.0238774843282</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.932117590796</v>
+        <v>3474.913573424574</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420619832274</v>
+        <v>10.16421358735721</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81928546811542</v>
+        <v>11.82003685908235</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0322797549564</v>
+        <v>518.0238774843282</v>
       </c>
       <c r="C42" t="n">
-        <v>6.383613907485236</v>
+        <v>6.385716183092995</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.714123293183</v>
+        <v>3461.672252960397</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81928546811542</v>
+        <v>11.82003685908235</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97395604144957</v>
+        <v>11.97396474611103</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762711690203949</v>
+        <v>4.762715152534422</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944181</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.864821788209043</v>
+        <v>1.862294233225633</v>
       </c>
       <c r="C2" t="n">
-        <v>2.112282620642806</v>
+        <v>2.109114897581193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8828467223015564</v>
+        <v>0.8829742918991172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210963236313556</v>
+        <v>0.2113652246470445</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>123.2398801562167</v>
+        <v>123.3033426939177</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.12193718407504</v>
+        <v>31.12726709096428</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.211374878212074</v>
+        <v>6.211509531725744</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.43572698798456</v>
+        <v>42.45465058651765</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.59673868480375</v>
+        <v>27.60716783313551</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489188287857714</v>
+        <v>0.8489184235216733</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.84114227738922</v>
+        <v>10.84640502200236</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7984556064167495</v>
+        <v>0.7983979868216485</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.97628536997052</v>
+        <v>3.978688106116051</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8009624101154235</v>
+        <v>0.8009144244098226</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02156065582106679</v>
+        <v>0.02238962526373516</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03355748135041888</v>
+        <v>0.0345481565576242</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04036019820258737</v>
+        <v>0.04056006950216683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04523159606582489</v>
+        <v>0.04545513884705613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923009956104967</v>
+        <v>0.8923098802676669</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39585.62754949127</v>
+        <v>39595.60994662796</v>
       </c>
       <c r="C2" t="n">
-        <v>39985.4823732235</v>
+        <v>39995.56560265451</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88026.08774694621</v>
+        <v>88039.83146848713</v>
       </c>
       <c r="C3" t="n">
-        <v>88915.24014843052</v>
+        <v>88929.12269544155</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32969.52929010263</v>
+        <v>32984.97446584421</v>
       </c>
       <c r="C4" t="n">
-        <v>33302.55483848751</v>
+        <v>33318.15602610526</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>444.4715500958961</v>
+        <v>444.6010064646844</v>
       </c>
       <c r="C5" t="n">
-        <v>448.9611617130264</v>
+        <v>449.0919257219034</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28428.39529806544</v>
+        <v>28436.53387425932</v>
       </c>
       <c r="C6" t="n">
-        <v>28715.55080612671</v>
+        <v>28723.77159016093</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30838.74571164334</v>
+        <v>30852.18533640966</v>
       </c>
       <c r="C7" t="n">
-        <v>31150.24819357913</v>
+        <v>31163.82357213097</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.82406545970476</v>
+        <v>44.84739433163191</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.74774256033004</v>
+        <v>77.72496871877021</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.711396519203997</v>
+        <v>6.708715088184345</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34660.34256868446</v>
+        <v>34660.1792787161</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3629.067977470098</v>
+        <v>3631.170542699988</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22596.07751183296</v>
+        <v>22596.28242528409</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.772612792845</v>
+        <v>7875.778338213421</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.889246732658</v>
+        <v>5689.893383089885</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.07331632237</v>
+        <v>21121.08867062901</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38315.80315331797</v>
+        <v>38317.93093463231</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.750069566866763</v>
+        <v>0.7504558161726315</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.856240404623</v>
+        <v>463.8587996485867</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.2833438019702</v>
+        <v>869.2862401477474</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.4755373434853</v>
+        <v>304.4847810439517</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.2647042910154</v>
+        <v>692.2747802912448</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.1919418074944</v>
+        <v>233.1974131515408</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1713981399895</v>
+        <v>615.1772706443903</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.2716106971134</v>
+        <v>232.2770766285779</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1836810408594</v>
+        <v>614.189546638969</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.4215110875672</v>
+        <v>172.4250282453905</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.3270036967635</v>
+        <v>550.3307358738307</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4406693891215</v>
+        <v>102.4389253187189</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.4708287769342</v>
+        <v>476.4689971191934</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.6332595175085</v>
+        <v>506.6337548143963</v>
       </c>
       <c r="C3" t="n">
-        <v>7.752484155881493</v>
+        <v>7.753672072350085</v>
       </c>
       <c r="D3" t="n">
-        <v>3418.769148545093</v>
+        <v>3418.756360172804</v>
       </c>
       <c r="E3" t="n">
-        <v>64.10517364468359</v>
+        <v>64.1049745593799</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.1339519460771</v>
+        <v>296.1436017457509</v>
       </c>
       <c r="C4" t="n">
-        <v>8.129843623373786</v>
+        <v>8.130963095015229</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.737969487255</v>
+        <v>2756.721068167323</v>
       </c>
       <c r="E4" t="n">
-        <v>64.10517364468359</v>
+        <v>64.1049745593799</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8924553708521</v>
+        <v>294.9010913641671</v>
       </c>
       <c r="C5" t="n">
-        <v>8.129843623373786</v>
+        <v>8.130963095015229</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.531601032709</v>
+        <v>1316.578867488415</v>
       </c>
       <c r="E5" t="n">
-        <v>64.10517364468359</v>
+        <v>64.1049745593799</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.1817000022011</v>
+        <v>162.1851104448625</v>
       </c>
       <c r="C6" t="n">
-        <v>8.129843623373786</v>
+        <v>8.130963095015229</v>
       </c>
       <c r="D6" t="n">
-        <v>689.303737917996</v>
+        <v>689.3191129228428</v>
       </c>
       <c r="E6" t="n">
-        <v>64.10517364468359</v>
+        <v>64.1049745593799</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.8299689541777</v>
+        <v>160.8331632541851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6313953747261438</v>
+        <v>0.6314464537704066</v>
       </c>
       <c r="D7" t="n">
-        <v>679.0803719453726</v>
+        <v>679.0942580736639</v>
       </c>
       <c r="E7" t="n">
-        <v>64.10517364468359</v>
+        <v>64.1049745593799</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.3380438786363</v>
+        <v>174.3396756257806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6247585072826283</v>
+        <v>0.6248146759324993</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.316190438753</v>
+        <v>2791.31642335093</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62847373927046</v>
+        <v>15.62872716231433</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.8299688260104</v>
+        <v>160.8331631260124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6313953747261438</v>
+        <v>0.6314464537704066</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.350934134538</v>
+        <v>2758.354420744653</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62847373927046</v>
+        <v>15.62872716231433</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.4880584796028</v>
+        <v>158.4942169249077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6313953747261438</v>
+        <v>0.6314464537704066</v>
       </c>
       <c r="D10" t="n">
-        <v>668.9299077154137</v>
+        <v>668.9566081411152</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73364738395405</v>
+        <v>79.73370172169423</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.4880584796028</v>
+        <v>158.4942169249077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6313953747261438</v>
+        <v>0.6314464537704066</v>
       </c>
       <c r="D11" t="n">
-        <v>668.9299077154137</v>
+        <v>668.9566081411152</v>
       </c>
       <c r="E11" t="n">
-        <v>92.32224554833958</v>
+        <v>92.32329930657023</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6313953747261438</v>
+        <v>0.6314464537704066</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6938129544872</v>
+        <v>251.693855844641</v>
       </c>
       <c r="E12" t="n">
-        <v>92.32145833671109</v>
+        <v>92.32196725395029</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.2310444719335</v>
+        <v>44.22906202226329</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>185.8218437496836</v>
+        <v>185.8135599281437</v>
       </c>
       <c r="E13" t="n">
-        <v>73.33078895101946</v>
+        <v>73.34241169285173</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.2310444719335</v>
+        <v>44.22906202226329</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>185.8218437496836</v>
+        <v>185.8135599281437</v>
       </c>
       <c r="E14" t="n">
-        <v>73.33078895101946</v>
+        <v>73.34241169285173</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.16349089443327</v>
+        <v>72.15840228153985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03423823598462598</v>
+        <v>0.03423080956420551</v>
       </c>
       <c r="D15" t="n">
-        <v>302.1345672276424</v>
+        <v>302.1132321672529</v>
       </c>
       <c r="E15" t="n">
-        <v>55.33442090614871</v>
+        <v>55.33519661036607</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.87931143984434</v>
+        <v>48.87822609095099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03423829253591518</v>
+        <v>0.03422975408379419</v>
       </c>
       <c r="D16" t="n">
-        <v>204.6746536251948</v>
+        <v>204.6701081879991</v>
       </c>
       <c r="E16" t="n">
-        <v>55.33328434859086</v>
+        <v>55.33410196356552</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.3497126137657</v>
+        <v>60.3463922576999</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>252.684246713837</v>
+        <v>252.6703443829895</v>
       </c>
       <c r="E19" t="n">
         <v>73.07303568970033</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.051404096177</v>
+        <v>104.0537474367954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1169971488204308</v>
+        <v>0.1170019638667291</v>
       </c>
       <c r="D20" t="n">
-        <v>2633.116292021956</v>
+        <v>2633.105016741366</v>
       </c>
       <c r="E20" t="n">
-        <v>28.77935577932588</v>
+        <v>28.78489944480755</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.5872847687132</v>
+        <v>102.5884563594398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1111472913794093</v>
+        <v>0.1111518656733926</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0844989338883</v>
+        <v>430.0894449575439</v>
       </c>
       <c r="E21" t="n">
-        <v>28.77935577932588</v>
+        <v>28.78489944480755</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.42005960079341</v>
+        <v>70.41527183121276</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>294.848789548522</v>
+        <v>294.8287431572879</v>
       </c>
       <c r="E22" t="n">
         <v>580.0786352034013</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.09815624161646</v>
+        <v>45.09773797332907</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.37155694749003</v>
+        <v>73.36642742539993</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03604024840486946</v>
+        <v>0.03603243112021633</v>
       </c>
       <c r="D25" t="n">
-        <v>2502.853467848246</v>
+        <v>2502.834124255524</v>
       </c>
       <c r="E25" t="n">
-        <v>26.55518353737807</v>
+        <v>26.54956307032149</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.6721335199568</v>
+        <v>503.6729972262052</v>
       </c>
       <c r="C26" t="n">
-        <v>7.131078973747577</v>
+        <v>7.132356063589484</v>
       </c>
       <c r="D26" t="n">
-        <v>3418.769148545093</v>
+        <v>3418.756360172804</v>
       </c>
       <c r="E26" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F26" t="n">
-        <v>6.801379291206867</v>
+        <v>6.801284750382459</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5181208912863</v>
+        <v>187.5134159294905</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4646310362347693</v>
+        <v>0.4646949159974512</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.935983770432</v>
+        <v>2830.922164828947</v>
       </c>
       <c r="E27" t="n">
-        <v>57.70340271672826</v>
+        <v>57.71402254824269</v>
       </c>
       <c r="F27" t="n">
-        <v>7.040616022553446</v>
+        <v>7.04052435008121</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.5641553975312</v>
+        <v>171.5663038292936</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5341418078029042</v>
+        <v>0.5342079418834971</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.316190438753</v>
+        <v>2791.31642335093</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62847373927046</v>
+        <v>15.62872716231433</v>
       </c>
       <c r="F28" t="n">
-        <v>6.890827802467093</v>
+        <v>6.890773369155378</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.612182906634</v>
+        <v>183.6094666321643</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4646310362347693</v>
+        <v>0.4646949159974512</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.492221936368</v>
+        <v>2822.482512238011</v>
       </c>
       <c r="E29" t="n">
-        <v>73.33187645599872</v>
+        <v>73.34274971055703</v>
       </c>
       <c r="F29" t="n">
-        <v>7.022208423101484</v>
+        <v>7.022125560205674</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.0519577392563</v>
+        <v>104.0536863279148</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1169887000160557</v>
+        <v>0.1169957407877702</v>
       </c>
       <c r="D30" t="n">
-        <v>2633.117297049434</v>
+        <v>2633.104905861743</v>
       </c>
       <c r="E30" t="n">
-        <v>73.33187645599872</v>
+        <v>73.34274971055703</v>
       </c>
       <c r="F30" t="n">
-        <v>7.176818220325977</v>
+        <v>7.176758661124675</v>
       </c>
       <c r="G30" t="n">
-        <v>97.82690380998197</v>
+        <v>97.8262278621292</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.37495226807886</v>
+        <v>73.36762493682335</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03604542358944566</v>
+        <v>0.03603425597465428</v>
       </c>
       <c r="D31" t="n">
-        <v>2502.857795248362</v>
+        <v>2502.835473448502</v>
       </c>
       <c r="E31" t="n">
-        <v>44.55263908722809</v>
+        <v>44.55711617051244</v>
       </c>
       <c r="F31" t="n">
-        <v>7.332326841967757</v>
+        <v>7.332396440844604</v>
       </c>
       <c r="G31" t="n">
-        <v>94.45116305361054</v>
+        <v>94.45078174883588</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.30978369123153</v>
+        <v>71.32383978098943</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03301119164313035</v>
+        <v>0.03303108964291115</v>
       </c>
       <c r="D32" t="n">
-        <v>2502.857795248362</v>
+        <v>2502.835473448502</v>
       </c>
       <c r="E32" t="n">
-        <v>17.9975046024286</v>
+        <v>18.00830972928621</v>
       </c>
       <c r="F32" t="n">
-        <v>7.370398708020488</v>
+        <v>7.370072732223518</v>
       </c>
       <c r="G32" t="n">
-        <v>94.61427354806172</v>
+        <v>94.6122056367817</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.33263676392431</v>
+        <v>28.33602199876611</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003857005574836616</v>
+        <v>0.003857764609260626</v>
       </c>
       <c r="D33" t="n">
-        <v>2355.588224862827</v>
+        <v>2355.456655191564</v>
       </c>
       <c r="E33" t="n">
-        <v>17.9975046024286</v>
+        <v>18.00830972928621</v>
       </c>
       <c r="F33" t="n">
-        <v>7.833113966056142</v>
+        <v>7.832594251035885</v>
       </c>
       <c r="G33" t="n">
-        <v>91.90777211193503</v>
+        <v>91.90208805191416</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.33263676392431</v>
+        <v>28.33602199876611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003857005574836616</v>
+        <v>0.003857764609260626</v>
       </c>
       <c r="D34" t="n">
-        <v>118.7635903363254</v>
+        <v>118.7777429096784</v>
       </c>
       <c r="E34" t="n">
-        <v>17.9975046024286</v>
+        <v>18.00830972928621</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.35752972140887</v>
+        <v>30.36091675182405</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>127.8589254087257</v>
+        <v>127.8730769079701</v>
       </c>
       <c r="E35" t="n">
-        <v>17.9975046024286</v>
+        <v>18.00830972928621</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0322797549564</v>
+        <v>503.0238774843282</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.932117590796</v>
+        <v>3474.913573424574</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420619832274</v>
+        <v>10.16421358735721</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0322797549564</v>
+        <v>518.0238774843282</v>
       </c>
       <c r="C42" t="n">
-        <v>6.383613907485236</v>
+        <v>6.385716183092995</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.714123293183</v>
+        <v>3461.672252960397</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81928546811542</v>
+        <v>11.82003685908235</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6554640599799644</v>
+        <v>0.7067698248606104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863922991971236</v>
+        <v>0.7219143759790845</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9549408709081728</v>
+        <v>0.9790216795476131</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.27422403015304</v>
+        <v>63.99966594409997</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.92627600470344</v>
+        <v>37.31821725765809</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488718813567515</v>
+        <v>0.848888965572297</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.88947438523901</v>
+        <v>14.2516985518893</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7645263860728468</v>
+        <v>0.7999202047300799</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.804430233503469</v>
+        <v>7.450889758744973</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7072147734650002</v>
+        <v>0.6919198168803535</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.654043406707127</v>
+        <v>4.978860375807615</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5138326716738405</v>
+        <v>0.6566322941733468</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1637915917325427</v>
+        <v>0.2200355378603301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1821425404148329</v>
+        <v>0.2435571289650472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992495183140876</v>
+        <v>0.903424748006072</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42439.51890693152</v>
+        <v>42237.30028294453</v>
       </c>
       <c r="C2" t="n">
-        <v>42868.20091609245</v>
+        <v>42663.93967974195</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92321.48928911729</v>
+        <v>89638.81848739079</v>
       </c>
       <c r="C3" t="n">
-        <v>93254.02958496696</v>
+        <v>90544.26109837454</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40210.71244115962</v>
+        <v>40954.68222379833</v>
       </c>
       <c r="C4" t="n">
-        <v>40616.88125369659</v>
+        <v>41368.36588262457</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.1539412252387</v>
+        <v>516.6813416129862</v>
       </c>
       <c r="C5" t="n">
-        <v>520.35751638913</v>
+        <v>521.9003450636225</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33305.98210335537</v>
+        <v>33828.07085571862</v>
       </c>
       <c r="C6" t="n">
-        <v>33642.40616500542</v>
+        <v>34169.76854112992</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38523.07488362496</v>
+        <v>39433.05543637853</v>
       </c>
       <c r="C7" t="n">
-        <v>38912.19685214643</v>
+        <v>39831.36912765508</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.77944589205111</v>
+        <v>51.13662811518802</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.49095395905675</v>
+        <v>72.18187629206676</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.337842354261004</v>
+        <v>6.289737798114074</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.8587996485867</v>
+        <v>464.2013808044547</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.2862401477474</v>
+        <v>869.6739615127052</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.4847810439517</v>
+        <v>309.5562501541818</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.2747802912448</v>
+        <v>697.8060871700901</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.1974131515408</v>
+        <v>237.0203758899471</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1772706443903</v>
+        <v>619.2821363086491</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.2770766285779</v>
+        <v>236.0980301248294</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.189546638969</v>
+        <v>618.2914837610812</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.4250282453905</v>
+        <v>175.346561924469</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.3307358738307</v>
+        <v>553.4316526165915</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4389253187189</v>
+        <v>103.7301484472189</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.4689971191934</v>
+        <v>477.8251739609383</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.6337548143963</v>
+        <v>505.4446406644462</v>
       </c>
       <c r="C3" t="n">
-        <v>7.753672072350085</v>
+        <v>8.426497307375916</v>
       </c>
       <c r="D3" t="n">
-        <v>3418.756360172804</v>
+        <v>3407.937893199582</v>
       </c>
       <c r="E3" t="n">
-        <v>64.1049745593799</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.1436017457509</v>
+        <v>301.4888544688741</v>
       </c>
       <c r="C4" t="n">
-        <v>8.130963095015229</v>
+        <v>8.769495828462908</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.721068167323</v>
+        <v>2746.723648057784</v>
       </c>
       <c r="E4" t="n">
-        <v>64.1049745593799</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.9010913641671</v>
+        <v>299.7667931790645</v>
       </c>
       <c r="C5" t="n">
-        <v>8.130963095015229</v>
+        <v>8.769495828462908</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.578867488415</v>
+        <v>1343.447613510427</v>
       </c>
       <c r="E5" t="n">
-        <v>64.1049745593799</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.1851104448625</v>
+        <v>165.1050331040503</v>
       </c>
       <c r="C6" t="n">
-        <v>8.130963095015229</v>
+        <v>8.769495828462908</v>
       </c>
       <c r="D6" t="n">
-        <v>689.3191129228428</v>
+        <v>702.301379214554</v>
       </c>
       <c r="E6" t="n">
-        <v>64.1049745593799</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.8331632541851</v>
+        <v>163.6234961215886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6314464537704066</v>
+        <v>0.6773391791720766</v>
       </c>
       <c r="D7" t="n">
-        <v>679.0942580736639</v>
+        <v>691.2368776714651</v>
       </c>
       <c r="E7" t="n">
-        <v>64.1049745593799</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.3396756257806</v>
+        <v>176.7626781691202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6248146759324993</v>
+        <v>0.6708641323313081</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.31642335093</v>
+        <v>2793.757781441823</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62872716231433</v>
+        <v>15.94752906806793</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.8331631260124</v>
+        <v>163.6234959876357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6314464537704066</v>
+        <v>0.6773391791720766</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.354420744653</v>
+        <v>2761.358349076519</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62872716231433</v>
+        <v>15.94752906806793</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.4942169249077</v>
+        <v>161.276488357889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6314464537704066</v>
+        <v>0.6773391791720766</v>
       </c>
       <c r="D10" t="n">
-        <v>668.9566081411152</v>
+        <v>681.0441981987311</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73370172169423</v>
+        <v>79.82476945781434</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.4942169249077</v>
+        <v>161.276488357889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6314464537704066</v>
+        <v>0.6773391791720766</v>
       </c>
       <c r="D11" t="n">
-        <v>668.9566081411152</v>
+        <v>681.0441981987311</v>
       </c>
       <c r="E11" t="n">
-        <v>92.32329930657023</v>
+        <v>91.85178419785359</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6314464537704066</v>
+        <v>0.6773391791720766</v>
       </c>
       <c r="D12" t="n">
-        <v>251.693855844641</v>
+        <v>251.7323909471729</v>
       </c>
       <c r="E12" t="n">
-        <v>92.32196725395029</v>
+        <v>91.84951189216851</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.22906202226329</v>
+        <v>44.52749304241075</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>185.8135599281437</v>
+        <v>187.0605858657133</v>
       </c>
       <c r="E13" t="n">
-        <v>73.34241169285173</v>
+        <v>79.82476945781963</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.22906202226329</v>
+        <v>44.52749304241075</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>185.8135599281437</v>
+        <v>187.0605858657133</v>
       </c>
       <c r="E14" t="n">
-        <v>73.34241169285173</v>
+        <v>79.82476945781963</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.15840228153985</v>
+        <v>77.25513741653759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03423080956420551</v>
+        <v>0.04238462799932194</v>
       </c>
       <c r="D15" t="n">
-        <v>302.1132321672529</v>
+        <v>323.4912615121121</v>
       </c>
       <c r="E15" t="n">
-        <v>55.33519661036607</v>
+        <v>55.63063689471207</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.87822609095099</v>
+        <v>49.98064651210296</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03422975408379419</v>
+        <v>0.04238462799932381</v>
       </c>
       <c r="D16" t="n">
-        <v>204.6701081879991</v>
+        <v>209.2867357726494</v>
       </c>
       <c r="E16" t="n">
-        <v>55.33410196356552</v>
+        <v>55.63063689471616</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.3463922576999</v>
+        <v>63.45760090711254</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>252.6703443829895</v>
+        <v>265.6969749980802</v>
       </c>
       <c r="E19" t="n">
         <v>73.07303568970033</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.0537474367954</v>
+        <v>111.1301188610001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1170019638667291</v>
+        <v>0.1122622833748714</v>
       </c>
       <c r="D20" t="n">
-        <v>2633.105016741366</v>
+        <v>2639.19691954398</v>
       </c>
       <c r="E20" t="n">
-        <v>28.78489944480755</v>
+        <v>23.32962502056255</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.5884563594398</v>
+        <v>101.4154214051173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1111518656733926</v>
+        <v>0.1066491692061279</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0894449575439</v>
+        <v>425.1381994923527</v>
       </c>
       <c r="E21" t="n">
-        <v>28.78489944480755</v>
+        <v>23.32962502056255</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.41527183121276</v>
+        <v>75.20894332740015</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>294.8287431572879</v>
+        <v>314.8998457118245</v>
       </c>
       <c r="E22" t="n">
         <v>580.0786352034013</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.09773797332907</v>
+        <v>45.48965976958161</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.36642742539993</v>
+        <v>78.50453594934999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03603243112021633</v>
+        <v>0.04461539789402309</v>
       </c>
       <c r="D25" t="n">
-        <v>2502.834124255524</v>
+        <v>2507.311430393305</v>
       </c>
       <c r="E25" t="n">
-        <v>26.54956307032149</v>
+        <v>32.3010118741479</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.6729972262052</v>
+        <v>502.7586598992498</v>
       </c>
       <c r="C26" t="n">
-        <v>7.132356063589484</v>
+        <v>7.863129064241095</v>
       </c>
       <c r="D26" t="n">
-        <v>3418.756360172804</v>
+        <v>3407.937893199582</v>
       </c>
       <c r="E26" t="n">
-        <v>57.71402254824269</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F26" t="n">
-        <v>6.801284750382459</v>
+        <v>6.744957566323892</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.5134159294905</v>
+        <v>185.4288506603664</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4646949159974512</v>
+        <v>0.5103513450378528</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.922164828947</v>
+        <v>2823.7201494467</v>
       </c>
       <c r="E27" t="n">
-        <v>57.71402254824269</v>
+        <v>63.87724038974641</v>
       </c>
       <c r="F27" t="n">
-        <v>7.04052435008121</v>
+        <v>6.982885771326361</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.5663038292936</v>
+        <v>174.120777676249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5342079418834971</v>
+        <v>0.5827292119076155</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.31642335093</v>
+        <v>2793.757781441823</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62872716231433</v>
+        <v>15.94752906806793</v>
       </c>
       <c r="F28" t="n">
-        <v>6.890773369155378</v>
+        <v>6.857709031430707</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6094666321643</v>
+        <v>182.701232380874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4646949159974512</v>
+        <v>0.5103513450378528</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.482512238011</v>
+        <v>2817.734216283956</v>
       </c>
       <c r="E29" t="n">
-        <v>73.34274971055703</v>
+        <v>79.82476945781434</v>
       </c>
       <c r="F29" t="n">
-        <v>7.022125560205674</v>
+        <v>6.969793541877465</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.0536863279148</v>
+        <v>111.1301188610018</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1169957407877702</v>
+        <v>0.1489073384735101</v>
       </c>
       <c r="D30" t="n">
-        <v>2633.104905861743</v>
+        <v>2639.196919543988</v>
       </c>
       <c r="E30" t="n">
-        <v>73.34274971055703</v>
+        <v>79.82476945781434</v>
       </c>
       <c r="F30" t="n">
-        <v>7.176758661124675</v>
+        <v>7.086001964492564</v>
       </c>
       <c r="G30" t="n">
-        <v>97.8262278621292</v>
+        <v>97.59373952650651</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.36762493682335</v>
+        <v>78.50453594934947</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03603425597465428</v>
+        <v>0.04461539789402355</v>
       </c>
       <c r="D31" t="n">
-        <v>2502.835473448502</v>
+        <v>2507.31143039331</v>
       </c>
       <c r="E31" t="n">
-        <v>44.55711617051244</v>
+        <v>56.49514443725018</v>
       </c>
       <c r="F31" t="n">
-        <v>7.332396440844604</v>
+        <v>7.252991318757616</v>
       </c>
       <c r="G31" t="n">
-        <v>94.45078174883588</v>
+        <v>94.2382642724907</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.32383978098943</v>
+        <v>78.50453594934947</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03303108964291115</v>
+        <v>0.04461539789402355</v>
       </c>
       <c r="D32" t="n">
-        <v>2502.835473448502</v>
+        <v>2507.31143039331</v>
       </c>
       <c r="E32" t="n">
-        <v>18.00830972928621</v>
+        <v>24.19413256310347</v>
       </c>
       <c r="F32" t="n">
-        <v>7.370072732223518</v>
+        <v>7.252991318757616</v>
       </c>
       <c r="G32" t="n">
-        <v>94.6122056367817</v>
+        <v>94.2382642724907</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.33602199876611</v>
+        <v>30.26947048623276</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003857764609260626</v>
+        <v>0.004313108894769433</v>
       </c>
       <c r="D33" t="n">
-        <v>2355.456655191564</v>
+        <v>2301.523503803188</v>
       </c>
       <c r="E33" t="n">
-        <v>18.00830972928621</v>
+        <v>24.19413256310347</v>
       </c>
       <c r="F33" t="n">
-        <v>7.832594251035885</v>
+        <v>7.60765249817926</v>
       </c>
       <c r="G33" t="n">
-        <v>91.90208805191416</v>
+        <v>89.5228496371094</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.33602199876611</v>
+        <v>30.26947048623276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003857764609260626</v>
+        <v>0.004313108894769433</v>
       </c>
       <c r="D34" t="n">
-        <v>118.7777429096784</v>
+        <v>126.8604357217977</v>
       </c>
       <c r="E34" t="n">
-        <v>18.00830972928621</v>
+        <v>24.19413256310347</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.36091675182405</v>
+        <v>32.29531885273605</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>127.8730769079701</v>
+        <v>135.9550183560968</v>
       </c>
       <c r="E35" t="n">
-        <v>18.00830972928621</v>
+        <v>24.19413256310347</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>441.5033365247478</v>
+        <v>441.3701589389044</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.61116814060308</v>
+        <v>13.61100171663441</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.9683880903184</v>
+        <v>543.9708510766022</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>968.0172137521573</v>
+        <v>968.0220892516106</v>
       </c>
       <c r="E5" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.2454511756521</v>
+        <v>467.2428319156963</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>880.1369875834406</v>
+        <v>880.1359844784465</v>
       </c>
       <c r="E6" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.5249371214686</v>
+        <v>291.4983026051473</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.7375402271499</v>
+        <v>684.7103732216699</v>
       </c>
       <c r="E7" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.817885789291</v>
+        <v>223.7896398537175</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.5292471831733</v>
+        <v>611.5007229012677</v>
       </c>
       <c r="E8" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.8986706586808</v>
+        <v>222.8704385161242</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.5424802901864</v>
+        <v>610.5139757986858</v>
       </c>
       <c r="E9" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7703002656608</v>
+        <v>163.7500482255595</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.4291949615157</v>
+        <v>547.4094545021362</v>
       </c>
       <c r="E10" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.95923287328931</v>
+        <v>98.95314848145185</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.9545072671607</v>
+        <v>478.9498318279911</v>
       </c>
       <c r="E11" t="n">
-        <v>455.1145046653509</v>
+        <v>454.9811606555388</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781580824514972</v>
+        <v>0.7781574813386539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202188833101252</v>
+        <v>0.1202179063612444</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03194989280887223</v>
+        <v>0.03195041196719708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310756488379031</v>
+        <v>0.06310860538363175</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565576545714974</v>
+        <v>0.006565594949272987</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.90214936909962</v>
+        <v>12.90199161431471</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7090187715034696</v>
+        <v>0.7090101023197087</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762715152534422</v>
+        <v>4.762706636921715</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7067698248606104</v>
+        <v>0.7066906860781662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7219143759790845</v>
+        <v>0.7218533458885854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9790216795476131</v>
+        <v>0.9789948195200864</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.99966594409997</v>
+        <v>63.99640279872624</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.31821725765809</v>
+        <v>37.31571381431901</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848888965572297</v>
+        <v>0.8488895756418234</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.2516985518893</v>
+        <v>14.25175510249913</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7999202047300799</v>
+        <v>0.7999142911464516</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.450889758744973</v>
+        <v>7.450549748752429</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6919198168803535</v>
+        <v>0.6919184914046951</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.978860375807615</v>
+        <v>4.978384133155666</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.6566322941733468</v>
+        <v>0.6566088832923457</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2200355378603301</v>
+        <v>0.2200246760386857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2435571289650472</v>
+        <v>0.2435453413075149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.903424748006072</v>
+        <v>0.9034238752317968</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42237.30028294453</v>
+        <v>42235.93445544547</v>
       </c>
       <c r="C2" t="n">
-        <v>42663.93967974195</v>
+        <v>42662.56005600552</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89638.81848739079</v>
+        <v>89641.74355445425</v>
       </c>
       <c r="C3" t="n">
-        <v>90544.26109837454</v>
+        <v>90547.21571156995</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40954.68222379833</v>
+        <v>40945.44094076213</v>
       </c>
       <c r="C4" t="n">
-        <v>41368.36588262457</v>
+        <v>41359.03125329508</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.6813416129862</v>
+        <v>516.6954994127993</v>
       </c>
       <c r="C5" t="n">
-        <v>521.9003450636225</v>
+        <v>521.9146458715145</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33828.07085571862</v>
+        <v>33834.29861120388</v>
       </c>
       <c r="C6" t="n">
-        <v>34169.76854112992</v>
+        <v>34176.05920323624</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39433.05543637853</v>
+        <v>39432.85141455786</v>
       </c>
       <c r="C7" t="n">
-        <v>39831.36912765508</v>
+        <v>39831.16304500794</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.13662811518802</v>
+        <v>51.13934161264049</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.18187629206676</v>
+        <v>72.17939687415108</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.289737798114074</v>
+        <v>6.289503718577296</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.021418419232</v>
+        <v>518.0322423612947</v>
       </c>
       <c r="C3" t="n">
-        <v>6.385624141632899</v>
+        <v>6.383098823964101</v>
       </c>
       <c r="D3" t="n">
-        <v>3461.668853056422</v>
+        <v>3461.722313477534</v>
       </c>
       <c r="E3" t="n">
-        <v>57.71402254824269</v>
+        <v>57.70240953565396</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.505564307004</v>
+        <v>283.4799993021833</v>
       </c>
       <c r="C4" t="n">
-        <v>6.762803830685185</v>
+        <v>6.760228386649398</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.656152597989</v>
+        <v>2775.688391794034</v>
       </c>
       <c r="E4" t="n">
-        <v>57.71402254824269</v>
+        <v>57.70240953565396</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5498522857237</v>
+        <v>282.541759552064</v>
       </c>
       <c r="C5" t="n">
-        <v>6.762803830685185</v>
+        <v>6.760228386649398</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.219561360954</v>
+        <v>1250.178023679209</v>
       </c>
       <c r="E5" t="n">
-        <v>57.71402254824269</v>
+        <v>57.70240953565396</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.9154956048409</v>
+        <v>159.9114835602621</v>
       </c>
       <c r="C6" t="n">
-        <v>6.762803830685185</v>
+        <v>6.760228386649398</v>
       </c>
       <c r="D6" t="n">
-        <v>678.719702304979</v>
+        <v>678.7008694267187</v>
       </c>
       <c r="E6" t="n">
-        <v>57.71402254824269</v>
+        <v>57.70240953565396</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.3041713586046</v>
+        <v>153.2872014292176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5198605654838364</v>
+        <v>0.5196282363700419</v>
       </c>
       <c r="D7" t="n">
-        <v>646.452080832763</v>
+        <v>646.3786984872889</v>
       </c>
       <c r="E7" t="n">
-        <v>57.71402254824269</v>
+        <v>57.70240953565396</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.3627328561815</v>
+        <v>167.3479251133306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51367350184231</v>
+        <v>0.5134415971368822</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.206258081081</v>
+        <v>2783.189412956026</v>
       </c>
       <c r="E8" t="n">
-        <v>13.3259808151455</v>
+        <v>13.32022967897377</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.3041712452899</v>
+        <v>153.2872013159355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5198605654838364</v>
+        <v>0.5196282363700419</v>
       </c>
       <c r="D9" t="n">
-        <v>2749.841743510157</v>
+        <v>2749.82190473841</v>
       </c>
       <c r="E9" t="n">
-        <v>13.3259808151455</v>
+        <v>13.32022967897377</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.979890368033</v>
+        <v>151.9657675424298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5198605654838364</v>
+        <v>0.5196282363700419</v>
       </c>
       <c r="D10" t="n">
-        <v>640.7389473727253</v>
+        <v>640.6779038865933</v>
       </c>
       <c r="E10" t="n">
-        <v>71.04000336338818</v>
+        <v>71.02263921462773</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.979890368033</v>
+        <v>151.9657675424298</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5198605654838364</v>
+        <v>0.5196282363700419</v>
       </c>
       <c r="D11" t="n">
-        <v>640.7389473727253</v>
+        <v>640.6779038865933</v>
       </c>
       <c r="E11" t="n">
-        <v>79.28324402395398</v>
+        <v>79.25497010364204</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5198605654838364</v>
+        <v>0.5196282363700419</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6001578606945</v>
+        <v>251.5999627727192</v>
       </c>
       <c r="E12" t="n">
-        <v>79.27670909916752</v>
+        <v>79.25095836615141</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.17443425573117</v>
+        <v>49.18532389064546</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>206.4808748864569</v>
+        <v>206.5263907153662</v>
       </c>
       <c r="E13" t="n">
-        <v>71.04748079787004</v>
+        <v>71.02038208671172</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.42657358258845</v>
+        <v>48.43936086490044</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.3550899720127</v>
+        <v>203.4085348879422</v>
       </c>
       <c r="E14" t="n">
-        <v>59.22744393878769</v>
+        <v>59.20120515431753</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.95384630863123</v>
+        <v>79.96985953769251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04732593454576434</v>
+        <v>0.0473566379743579</v>
       </c>
       <c r="D15" t="n">
-        <v>334.8185824687987</v>
+        <v>334.8858119150544</v>
       </c>
       <c r="E15" t="n">
-        <v>54.77064891688808</v>
+        <v>54.76831935220392</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.40869028515976</v>
+        <v>50.41226126030557</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04732225520146669</v>
+        <v>0.04735669087402657</v>
       </c>
       <c r="D16" t="n">
-        <v>211.0808688520027</v>
+        <v>211.0958308501492</v>
       </c>
       <c r="E16" t="n">
-        <v>54.76843770042738</v>
+        <v>54.76886153277487</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>578.6143696434531</v>
+        <v>578.6251502999238</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.88858081922612</v>
+        <v>72.88993886837194</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.88249044230658</v>
+        <v>64.89298935045899</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>271.6629874819376</v>
+        <v>271.7069464103718</v>
       </c>
       <c r="E19" t="n">
-        <v>72.88858081922612</v>
+        <v>72.88993886837194</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.2339523073869</v>
+        <v>102.233125204042</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1097762266242025</v>
+        <v>0.1097621975086267</v>
       </c>
       <c r="D20" t="n">
-        <v>2659.76451935698</v>
+        <v>2659.818697727097</v>
       </c>
       <c r="E20" t="n">
-        <v>20.24786913026481</v>
+        <v>20.23118651622109</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.7836745647897</v>
+        <v>100.780076098649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1042874152929923</v>
+        <v>0.1042740876331953</v>
       </c>
       <c r="D21" t="n">
-        <v>422.4723863755149</v>
+        <v>422.4572031736354</v>
       </c>
       <c r="E21" t="n">
-        <v>20.24786913026481</v>
+        <v>20.23118651622109</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.75166749157309</v>
+        <v>77.76669079013178</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>325.5462317872165</v>
+        <v>325.6091343382818</v>
       </c>
       <c r="E22" t="n">
-        <v>578.6143696434531</v>
+        <v>578.6251502999238</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>578.6143696434531</v>
+        <v>578.6251502999238</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.66915440623996</v>
+        <v>45.67047696329269</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>578.6143696434531</v>
+        <v>578.6251502999238</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.22547457313681</v>
+        <v>81.24162037088144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04981677320606773</v>
+        <v>0.04984909260458727</v>
       </c>
       <c r="D25" t="n">
-        <v>2557.686066712557</v>
+        <v>2557.811676596255</v>
       </c>
       <c r="E25" t="n">
-        <v>34.52074938586941</v>
+        <v>34.53708682884899</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>515.1234314126456</v>
+        <v>515.134393650291</v>
       </c>
       <c r="C26" t="n">
-        <v>5.755895798054463</v>
+        <v>5.753366473603689</v>
       </c>
       <c r="D26" t="n">
-        <v>3461.668853056422</v>
+        <v>3461.722313477534</v>
       </c>
       <c r="E26" t="n">
-        <v>45.90150195667709</v>
+        <v>45.88049576733873</v>
       </c>
       <c r="F26" t="n">
-        <v>6.950328389029571</v>
+        <v>6.950590620073748</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.2670428486027</v>
+        <v>199.2810852029631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3834594310386156</v>
+        <v>0.383303965212614</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.225182232931</v>
+        <v>2860.262370343795</v>
       </c>
       <c r="E27" t="n">
-        <v>45.90150195667709</v>
+        <v>45.88049576733873</v>
       </c>
       <c r="F27" t="n">
-        <v>7.189899799905559</v>
+        <v>7.190161843462131</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.7602604995723</v>
+        <v>164.7461336112797</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4339973485154849</v>
+        <v>0.4337982704810004</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.206258081081</v>
+        <v>2783.189412956026</v>
       </c>
       <c r="E28" t="n">
-        <v>13.3259808151455</v>
+        <v>13.32022967897377</v>
       </c>
       <c r="F28" t="n">
-        <v>6.964874696439143</v>
+        <v>6.965041028033021</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.0045092622393</v>
+        <v>191.0122258579479</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3834594310386156</v>
+        <v>0.383303965212614</v>
       </c>
       <c r="D29" t="n">
-        <v>2842.896188029264</v>
+        <v>2842.920868416189</v>
       </c>
       <c r="E29" t="n">
-        <v>59.22748277182259</v>
+        <v>59.2007254463125</v>
       </c>
       <c r="F29" t="n">
-        <v>7.152893310879464</v>
+        <v>7.153129502609954</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.2340765818462</v>
+        <v>102.2328775175221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1097753203547119</v>
+        <v>0.1097706867733271</v>
       </c>
       <c r="D30" t="n">
-        <v>2659.764903119034</v>
+        <v>2659.817932156039</v>
       </c>
       <c r="E30" t="n">
-        <v>59.22748277182259</v>
+        <v>59.2007254463125</v>
       </c>
       <c r="F30" t="n">
-        <v>7.276079530500383</v>
+        <v>7.276239795589595</v>
       </c>
       <c r="G30" t="n">
-        <v>99.14168897765411</v>
+        <v>99.14412992951549</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.22608140860075</v>
+        <v>81.23984298204755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04981798760396458</v>
+        <v>0.04984553390490393</v>
       </c>
       <c r="D31" t="n">
-        <v>2557.688587059732</v>
+        <v>2557.804173695457</v>
       </c>
       <c r="E31" t="n">
-        <v>38.97758324080392</v>
+        <v>38.96949292295758</v>
       </c>
       <c r="F31" t="n">
-        <v>7.34767973556958</v>
+        <v>7.347762823663341</v>
       </c>
       <c r="G31" t="n">
-        <v>96.20915979681877</v>
+        <v>96.21312163634977</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.66397036004474</v>
+        <v>42.56001612226953</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008500328403271877</v>
+        <v>0.008454227270082611</v>
       </c>
       <c r="D32" t="n">
-        <v>2557.688587059732</v>
+        <v>2557.804173695457</v>
       </c>
       <c r="E32" t="n">
-        <v>4.459006238360303</v>
+        <v>4.432343621542657</v>
       </c>
       <c r="F32" t="n">
-        <v>8.140786539833188</v>
+        <v>8.143633423433826</v>
       </c>
       <c r="G32" t="n">
-        <v>99.14244318460698</v>
+        <v>99.15507162345986</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.17425918769186</v>
+        <v>28.33819521442553</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002931282042094046</v>
+        <v>0.002929484717962972</v>
       </c>
       <c r="D33" t="n">
-        <v>2552.667372899698</v>
+        <v>2552.979362484044</v>
       </c>
       <c r="E33" t="n">
-        <v>4.459006238360303</v>
+        <v>4.432343621542657</v>
       </c>
       <c r="F33" t="n">
-        <v>8.61327335324038</v>
+        <v>8.614591139104073</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.6936025283897</v>
+        <v>23.68341651964931</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002931282042094046</v>
+        <v>0.002929484717962972</v>
       </c>
       <c r="D34" t="n">
-        <v>99.36579639598799</v>
+        <v>99.32319491896399</v>
       </c>
       <c r="E34" t="n">
-        <v>4.459006238360303</v>
+        <v>4.432343621542657</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.71563537461708</v>
+        <v>25.70544221405669</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.4620091694157</v>
+        <v>108.4194085780464</v>
       </c>
       <c r="E35" t="n">
-        <v>4.459006238360303</v>
+        <v>4.432343621542657</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0238774843282</v>
+        <v>503.0343925963367</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.913573424574</v>
+        <v>3474.936780724282</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421358735721</v>
+        <v>10.16419541400366</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>11.82003685908235</v>
+        <v>11.81917693239419</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0238774843282</v>
+        <v>518.0343925963367</v>
       </c>
       <c r="C42" t="n">
-        <v>6.385716183092995</v>
+        <v>6.383388264487982</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.672252960397</v>
+        <v>3461.723980641181</v>
       </c>
       <c r="E42" t="n">
-        <v>11.82003685908235</v>
+        <v>11.81917693239419</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396474611103</v>
+        <v>11.97394333696875</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762715152534422</v>
+        <v>4.762706636921715</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.862294233225633</v>
+        <v>1.865067144628387</v>
       </c>
       <c r="C2" t="n">
-        <v>2.109114897581193</v>
+        <v>2.112581923999014</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8829742918991172</v>
+        <v>0.882837784154617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2113652246470445</v>
+        <v>0.2109257452327698</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>123.3033426939177</v>
+        <v>123.2393441725065</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.12726709096428</v>
+        <v>31.12189218361576</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.211509531725744</v>
+        <v>6.211373740972808</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.45465058651765</v>
+        <v>42.43191669269417</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.60716783313551</v>
+        <v>27.59528037517133</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489184235216733</v>
+        <v>0.8489185931534818</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.84640502200236</v>
+        <v>10.83982665795081</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7983979868216485</v>
+        <v>0.7984728108271639</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.978688106116051</v>
+        <v>3.975424438373965</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8009144244098226</v>
+        <v>0.8009824368872768</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02238962526373516</v>
+        <v>0.02138522119805552</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0345481565576242</v>
+        <v>0.03334597199206051</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04056006950216683</v>
+        <v>0.04031754459202317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04545513884705613</v>
+        <v>0.04518389021953922</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923098802676669</v>
+        <v>0.8922991003237773</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39595.60994662796</v>
+        <v>39586.65673563661</v>
       </c>
       <c r="C2" t="n">
-        <v>39995.56560265451</v>
+        <v>39986.52195518849</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88039.83146848713</v>
+        <v>88025.82171711209</v>
       </c>
       <c r="C3" t="n">
-        <v>88929.12269544155</v>
+        <v>88914.97143142635</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32984.97446584421</v>
+        <v>32975.92155722308</v>
       </c>
       <c r="C4" t="n">
-        <v>33318.15602610526</v>
+        <v>33309.0116739627</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>444.6010064646844</v>
+        <v>444.4618285861607</v>
       </c>
       <c r="C5" t="n">
-        <v>449.0919257219034</v>
+        <v>448.9513420062229</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28436.53387425932</v>
+        <v>28424.25465869514</v>
       </c>
       <c r="C6" t="n">
-        <v>28723.77159016093</v>
+        <v>28711.3683421163</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30852.18533640966</v>
+        <v>30836.36019649956</v>
       </c>
       <c r="C7" t="n">
-        <v>31163.82357213097</v>
+        <v>31147.83858232279</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.84739433163191</v>
+        <v>44.81183292351702</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.72496871877021</v>
+        <v>77.75960971323072</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.708715088184345</v>
+        <v>6.712044247567648</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34660.1792787161</v>
+        <v>34660.35319073257</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3631.170542699988</v>
+        <v>3628.822252022867</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22596.28242528409</v>
+        <v>22596.00614018061</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.778338213421</v>
+        <v>7875.764256523476</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.893383089885</v>
+        <v>5689.883209706252</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.08867062901</v>
+        <v>21121.05090666344</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38317.93093463231</v>
+        <v>38315.52062491604</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7504558161726315</v>
+        <v>0.7500663047322264</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.2013808044547</v>
+        <v>464.2036945768946</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.6739615127052</v>
+        <v>869.6765802650822</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.5562501541818</v>
+        <v>309.5535106875466</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.8060871700901</v>
+        <v>697.8030975814939</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.0203758899471</v>
+        <v>237.034088056615</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.2821363086491</v>
+        <v>619.2968653792057</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.0980301248294</v>
+        <v>236.1117196069892</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.2914837610812</v>
+        <v>618.3061856863562</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.346561924469</v>
+        <v>175.3491627544666</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.4316526165915</v>
+        <v>553.434413832303</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.7301484472189</v>
+        <v>103.7331496172122</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.8251739609383</v>
+        <v>477.8283263553515</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.4446406644462</v>
+        <v>505.4490992181213</v>
       </c>
       <c r="C3" t="n">
-        <v>8.426497307375916</v>
+        <v>8.426059593704245</v>
       </c>
       <c r="D3" t="n">
-        <v>3407.937893199582</v>
+        <v>3407.95320222548</v>
       </c>
       <c r="E3" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.4888544688741</v>
+        <v>301.4858447497409</v>
       </c>
       <c r="C4" t="n">
-        <v>8.769495828462908</v>
+        <v>8.769125791302327</v>
       </c>
       <c r="D4" t="n">
-        <v>2746.723648057784</v>
+        <v>2746.729645941914</v>
       </c>
       <c r="E4" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.7667931790645</v>
+        <v>299.7449159670149</v>
       </c>
       <c r="C5" t="n">
-        <v>8.769495828462908</v>
+        <v>8.769125791302327</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.447613510427</v>
+        <v>1343.322646605096</v>
       </c>
       <c r="E5" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.1050331040503</v>
+        <v>165.1055063737338</v>
       </c>
       <c r="C6" t="n">
-        <v>8.769495828462908</v>
+        <v>8.769125791302327</v>
       </c>
       <c r="D6" t="n">
-        <v>702.301379214554</v>
+        <v>702.3032108417842</v>
       </c>
       <c r="E6" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.6234961215886</v>
+        <v>163.6240338397654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6773391791720766</v>
+        <v>0.6773482714851167</v>
       </c>
       <c r="D7" t="n">
-        <v>691.2368776714651</v>
+        <v>691.2392201013951</v>
       </c>
       <c r="E7" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.7626781691202</v>
+        <v>176.7576571322717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6708641323313081</v>
+        <v>0.6708902268043966</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.757781441823</v>
+        <v>2793.745534101563</v>
       </c>
       <c r="E8" t="n">
-        <v>15.94752906806793</v>
+        <v>15.95031200929612</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.6234959876357</v>
+        <v>163.6240337058103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6773391791720766</v>
+        <v>0.6773482714851167</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.358349076519</v>
+        <v>2761.358919855389</v>
       </c>
       <c r="E9" t="n">
-        <v>15.94752906806793</v>
+        <v>15.95031200929612</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.276488357889</v>
+        <v>161.2743783997956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6773391791720766</v>
+        <v>0.6773482714851167</v>
       </c>
       <c r="D10" t="n">
-        <v>681.0441981987311</v>
+        <v>681.0350481162774</v>
       </c>
       <c r="E10" t="n">
-        <v>79.82476945781434</v>
+        <v>79.82334866128716</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.276488357889</v>
+        <v>161.2743783997956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6773391791720766</v>
+        <v>0.6773482714851167</v>
       </c>
       <c r="D11" t="n">
-        <v>681.0441981987311</v>
+        <v>681.0350481162774</v>
       </c>
       <c r="E11" t="n">
-        <v>91.85178419785359</v>
+        <v>91.8532513930101</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6773391791720766</v>
+        <v>0.6773482714851167</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7323909471729</v>
+        <v>251.7323985817083</v>
       </c>
       <c r="E12" t="n">
-        <v>91.84951189216851</v>
+        <v>91.84806461928484</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.52749304241075</v>
+        <v>44.52735686107741</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>187.0605858657133</v>
+        <v>187.0600168135877</v>
       </c>
       <c r="E13" t="n">
-        <v>79.82476945781963</v>
+        <v>79.8233486612836</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.52749304241075</v>
+        <v>44.52735686107741</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>187.0605858657133</v>
+        <v>187.0600168135877</v>
       </c>
       <c r="E14" t="n">
-        <v>79.82476945781963</v>
+        <v>79.8233486612836</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.25513741653759</v>
+        <v>77.25394990833041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04238462799932194</v>
+        <v>0.0423825532389499</v>
       </c>
       <c r="D15" t="n">
-        <v>323.4912615121121</v>
+        <v>323.4862783936569</v>
       </c>
       <c r="E15" t="n">
-        <v>55.63063689471207</v>
+        <v>55.63041083243618</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.98064651210296</v>
+        <v>49.98036069149731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04238462799932381</v>
+        <v>0.04238255323894961</v>
       </c>
       <c r="D16" t="n">
-        <v>209.2867357726494</v>
+        <v>209.2855388321914</v>
       </c>
       <c r="E16" t="n">
-        <v>55.63063689471616</v>
+        <v>55.63041083242675</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.45760090711254</v>
+        <v>63.45683583329674</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>265.6969749980802</v>
+        <v>265.6937716340135</v>
       </c>
       <c r="E19" t="n">
         <v>73.07303568970033</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.1301188610001</v>
+        <v>111.1287312838881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1122622833748714</v>
+        <v>0.1122633683257685</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.19691954398</v>
+        <v>2639.202280458439</v>
       </c>
       <c r="E20" t="n">
-        <v>23.32962502056255</v>
+        <v>23.33081864282382</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.4154214051173</v>
+        <v>101.4156947948947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1066491692061279</v>
+        <v>0.1066501999094801</v>
       </c>
       <c r="D21" t="n">
-        <v>425.1381994923527</v>
+        <v>425.1393532358964</v>
       </c>
       <c r="E21" t="n">
-        <v>23.32962502056255</v>
+        <v>23.33081864282382</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.20894332740015</v>
+        <v>75.20782610512268</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>314.8998457118245</v>
+        <v>314.8951679021487</v>
       </c>
       <c r="E22" t="n">
         <v>580.0786352034013</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.48965976958161</v>
+        <v>45.48956339253399</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.50453594934999</v>
+        <v>78.50333870851512</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04461539789402309</v>
+        <v>0.04461321393573674</v>
       </c>
       <c r="D25" t="n">
-        <v>2507.311430393305</v>
+        <v>2507.316706448603</v>
       </c>
       <c r="E25" t="n">
-        <v>32.3010118741479</v>
+        <v>32.29959218960796</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.7586598992498</v>
+        <v>502.7625940199467</v>
       </c>
       <c r="C26" t="n">
-        <v>7.863129064241095</v>
+        <v>7.862654835507537</v>
       </c>
       <c r="D26" t="n">
-        <v>3407.937893199582</v>
+        <v>3407.95320222548</v>
       </c>
       <c r="E26" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F26" t="n">
-        <v>6.744957566323892</v>
+        <v>6.745003420071909</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>185.4288506603664</v>
+        <v>185.4359686354583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5103513450378528</v>
+        <v>0.5103435061315875</v>
       </c>
       <c r="D27" t="n">
-        <v>2823.7201494467</v>
+        <v>2823.736202842286</v>
       </c>
       <c r="E27" t="n">
-        <v>63.87724038974641</v>
+        <v>63.87303665199104</v>
       </c>
       <c r="F27" t="n">
-        <v>6.982885771326361</v>
+        <v>6.982927643466567</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.120777676249</v>
+        <v>174.1159699236205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5827292119076155</v>
+        <v>0.5827466359651189</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.757781441823</v>
+        <v>2793.745534101563</v>
       </c>
       <c r="E28" t="n">
-        <v>15.94752906806793</v>
+        <v>15.95031200929612</v>
       </c>
       <c r="F28" t="n">
-        <v>6.857709031430707</v>
+        <v>6.85766841293222</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.701232380874</v>
+        <v>182.7052180275537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5103513450378528</v>
+        <v>0.5103435061315875</v>
       </c>
       <c r="D29" t="n">
-        <v>2817.734216283956</v>
+        <v>2817.743463477119</v>
       </c>
       <c r="E29" t="n">
-        <v>79.82476945781434</v>
+        <v>79.82334866128716</v>
       </c>
       <c r="F29" t="n">
-        <v>6.969793541877465</v>
+        <v>6.969820686726584</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.1301188610018</v>
+        <v>111.1287312838864</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1489073384735101</v>
+        <v>0.1489004445000381</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.196919543988</v>
+        <v>2639.202280458434</v>
       </c>
       <c r="E30" t="n">
-        <v>79.82476945781434</v>
+        <v>79.82334866128716</v>
       </c>
       <c r="F30" t="n">
-        <v>7.086001964492564</v>
+        <v>7.086036352416826</v>
       </c>
       <c r="G30" t="n">
-        <v>97.59373952650651</v>
+        <v>97.59407860303882</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.50453594934947</v>
+        <v>78.50333870851983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04461539789402355</v>
+        <v>0.0446132139357371</v>
       </c>
       <c r="D31" t="n">
-        <v>2507.31143039331</v>
+        <v>2507.316706448597</v>
       </c>
       <c r="E31" t="n">
-        <v>56.49514443725018</v>
+        <v>56.49253001845894</v>
       </c>
       <c r="F31" t="n">
-        <v>7.252991318757616</v>
+        <v>7.253027421010748</v>
       </c>
       <c r="G31" t="n">
-        <v>94.2382642724907</v>
+        <v>94.23858695360022</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.50453594934947</v>
+        <v>78.50333870851983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04461539789402355</v>
+        <v>0.0446132139357371</v>
       </c>
       <c r="D32" t="n">
-        <v>2507.31143039331</v>
+        <v>2507.316706448597</v>
       </c>
       <c r="E32" t="n">
-        <v>24.19413256310347</v>
+        <v>24.19293782885686</v>
       </c>
       <c r="F32" t="n">
-        <v>7.252991318757616</v>
+        <v>7.253027421010748</v>
       </c>
       <c r="G32" t="n">
-        <v>94.2382642724907</v>
+        <v>94.23858695360022</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.26947048623276</v>
+        <v>30.26912564986196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004313108894769433</v>
+        <v>0.004313023690364515</v>
       </c>
       <c r="D33" t="n">
-        <v>2301.523503803188</v>
+        <v>2301.538302503891</v>
       </c>
       <c r="E33" t="n">
-        <v>24.19413256310347</v>
+        <v>24.19293782885686</v>
       </c>
       <c r="F33" t="n">
-        <v>7.60765249817926</v>
+        <v>7.607709417111506</v>
       </c>
       <c r="G33" t="n">
-        <v>89.5228496371094</v>
+        <v>89.52348798869517</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.26947048623276</v>
+        <v>30.26912564986196</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004313108894769433</v>
+        <v>0.004313023690364515</v>
       </c>
       <c r="D34" t="n">
-        <v>126.8604357217977</v>
+        <v>126.8589942175825</v>
       </c>
       <c r="E34" t="n">
-        <v>24.19413256310347</v>
+        <v>24.19293782885686</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.29531885273605</v>
+        <v>32.29497385836737</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>135.9550183560968</v>
+        <v>135.9535770084432</v>
       </c>
       <c r="E35" t="n">
-        <v>24.19413256310347</v>
+        <v>24.19293782885686</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.0238774843282</v>
+        <v>503.0343925963367</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3474.913573424574</v>
+        <v>3474.936780724282</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421358735721</v>
+        <v>10.16419541400366</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.0238774843282</v>
+        <v>518.0343925963367</v>
       </c>
       <c r="C42" t="n">
-        <v>6.385716183092995</v>
+        <v>6.383388264487982</v>
       </c>
       <c r="D42" t="n">
-        <v>3461.672252960397</v>
+        <v>3461.723980641181</v>
       </c>
       <c r="E42" t="n">
-        <v>11.82003685908235</v>
+        <v>11.81917693239419</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
